--- a/descent/src/descent.xlsx
+++ b/descent/src/descent.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projets\workspace-defaut\descent\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\applis\repogit\descent\descent\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="13095" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="13095" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Contenu" sheetId="8" r:id="rId1"/>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6839" uniqueCount="1667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6856" uniqueCount="1678">
   <si>
     <t>Descent V2</t>
   </si>
@@ -5421,6 +5421,39 @@
   </si>
   <si>
     <t>Jonas the Kind</t>
+  </si>
+  <si>
+    <t>Shield of the Dark God</t>
+  </si>
+  <si>
+    <t>Trueshot</t>
+  </si>
+  <si>
+    <t>Dawnblade</t>
+  </si>
+  <si>
+    <t>Fortuna's Dice</t>
+  </si>
+  <si>
+    <t>Staff of Light</t>
+  </si>
+  <si>
+    <t>The Shadow Rune</t>
+  </si>
+  <si>
+    <t>Valyndra's Bane</t>
+  </si>
+  <si>
+    <t>Aurium Mail</t>
+  </si>
+  <si>
+    <t>Sun Stone</t>
+  </si>
+  <si>
+    <t>Living Heart</t>
+  </si>
+  <si>
+    <t>Gauntlets of Power</t>
   </si>
 </sst>
 </file>
@@ -7455,13 +7488,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -13070,6 +13103,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="C24:C25"/>
@@ -13086,13 +13126,6 @@
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13105,11 +13138,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V94"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S44" sqref="S44"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -17250,10 +17283,10 @@
       <c r="G76" s="296" t="s">
         <v>139</v>
       </c>
-      <c r="H76" s="296" t="s">
+      <c r="H76" s="296"/>
+      <c r="I76" s="296" t="s">
         <v>1508</v>
       </c>
-      <c r="I76" s="296"/>
       <c r="J76" s="296"/>
       <c r="K76" s="296" t="s">
         <v>152</v>
@@ -17284,7 +17317,7 @@
         <v>156</v>
       </c>
       <c r="E77" s="296">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="F77" s="296">
         <v>1</v>
@@ -17668,7 +17701,9 @@
       <c r="A84" s="168" t="s">
         <v>298</v>
       </c>
-      <c r="B84" s="169"/>
+      <c r="B84" s="169" t="s">
+        <v>1667</v>
+      </c>
       <c r="C84" s="170" t="s">
         <v>483</v>
       </c>
@@ -17706,7 +17741,9 @@
       <c r="A85" s="175" t="s">
         <v>299</v>
       </c>
-      <c r="B85" s="122"/>
+      <c r="B85" s="122" t="s">
+        <v>1668</v>
+      </c>
       <c r="C85" s="123" t="s">
         <v>483</v>
       </c>
@@ -17764,7 +17801,9 @@
       <c r="A86" s="175" t="s">
         <v>295</v>
       </c>
-      <c r="B86" s="122"/>
+      <c r="B86" s="122" t="s">
+        <v>1670</v>
+      </c>
       <c r="C86" s="123" t="s">
         <v>483</v>
       </c>
@@ -17802,7 +17841,9 @@
       <c r="A87" s="175" t="s">
         <v>297</v>
       </c>
-      <c r="B87" s="122"/>
+      <c r="B87" s="122" t="s">
+        <v>1671</v>
+      </c>
       <c r="C87" s="123" t="s">
         <v>483</v>
       </c>
@@ -17864,7 +17905,9 @@
       <c r="A88" s="175" t="s">
         <v>296</v>
       </c>
-      <c r="B88" s="122"/>
+      <c r="B88" s="122" t="s">
+        <v>1672</v>
+      </c>
       <c r="C88" s="123" t="s">
         <v>483</v>
       </c>
@@ -17926,7 +17969,9 @@
       <c r="A89" s="177" t="s">
         <v>300</v>
       </c>
-      <c r="B89" s="163"/>
+      <c r="B89" s="163" t="s">
+        <v>1669</v>
+      </c>
       <c r="C89" s="164" t="s">
         <v>483</v>
       </c>
@@ -17982,7 +18027,9 @@
       <c r="A90" s="179" t="s">
         <v>1501</v>
       </c>
-      <c r="B90" s="151"/>
+      <c r="B90" s="151" t="s">
+        <v>1673</v>
+      </c>
       <c r="C90" s="392" t="s">
         <v>653</v>
       </c>
@@ -18040,7 +18087,9 @@
       <c r="A91" s="183" t="s">
         <v>1505</v>
       </c>
-      <c r="B91" s="156"/>
+      <c r="B91" s="156" t="s">
+        <v>1674</v>
+      </c>
       <c r="C91" s="393" t="s">
         <v>653</v>
       </c>
@@ -18073,6 +18122,39 @@
       <c r="T91" s="156"/>
       <c r="U91" s="156"/>
       <c r="V91" s="184"/>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>142</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:S91">
@@ -18149,11 +18231,11 @@
       <c r="C1" s="95"/>
       <c r="D1" s="16"/>
       <c r="E1" s="32"/>
-      <c r="I1" s="431" t="s">
+      <c r="I1" s="432" t="s">
         <v>308</v>
       </c>
-      <c r="J1" s="431"/>
-      <c r="K1" s="431"/>
+      <c r="J1" s="432"/>
+      <c r="K1" s="432"/>
       <c r="M1" s="29" t="s">
         <v>221</v>
       </c>
@@ -18168,18 +18250,18 @@
       <c r="R1" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="S1" s="430" t="s">
+      <c r="S1" s="431" t="s">
         <v>261</v>
       </c>
-      <c r="T1" s="430"/>
-      <c r="U1" s="430" t="s">
+      <c r="T1" s="431"/>
+      <c r="U1" s="431" t="s">
         <v>262</v>
       </c>
-      <c r="V1" s="430"/>
-      <c r="W1" s="430" t="s">
+      <c r="V1" s="431"/>
+      <c r="W1" s="431" t="s">
         <v>263</v>
       </c>
-      <c r="X1" s="430"/>
+      <c r="X1" s="431"/>
       <c r="AA1" s="63"/>
       <c r="AB1" s="115"/>
       <c r="AC1" s="115"/>
@@ -28564,13 +28646,13 @@
       </c>
     </row>
     <row r="102" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="432" t="s">
+      <c r="A102" s="430" t="s">
         <v>1301</v>
       </c>
       <c r="B102" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C102" s="432" t="s">
+      <c r="C102" s="430" t="s">
         <v>1305</v>
       </c>
       <c r="D102" s="414" t="s">
@@ -28673,11 +28755,11 @@
       </c>
     </row>
     <row r="103" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="432"/>
+      <c r="A103" s="430"/>
       <c r="B103" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C103" s="432"/>
+      <c r="C103" s="430"/>
       <c r="D103" s="414"/>
       <c r="E103" s="417"/>
       <c r="F103" s="417"/>
@@ -28775,11 +28857,11 @@
       </c>
     </row>
     <row r="104" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="432"/>
+      <c r="A104" s="430"/>
       <c r="B104" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C104" s="432"/>
+      <c r="C104" s="430"/>
       <c r="D104" s="414"/>
       <c r="E104" s="417"/>
       <c r="F104" s="417" t="s">
@@ -28876,11 +28958,11 @@
       </c>
     </row>
     <row r="105" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="432"/>
+      <c r="A105" s="430"/>
       <c r="B105" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C105" s="432"/>
+      <c r="C105" s="430"/>
       <c r="D105" s="414"/>
       <c r="E105" s="417"/>
       <c r="F105" s="417"/>
@@ -28978,13 +29060,13 @@
       </c>
     </row>
     <row r="106" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="432" t="s">
+      <c r="A106" s="430" t="s">
         <v>1301</v>
       </c>
       <c r="B106" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C106" s="432" t="s">
+      <c r="C106" s="430" t="s">
         <v>1305</v>
       </c>
       <c r="D106" s="414" t="s">
@@ -29095,11 +29177,11 @@
       </c>
     </row>
     <row r="107" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="432"/>
+      <c r="A107" s="430"/>
       <c r="B107" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C107" s="432"/>
+      <c r="C107" s="430"/>
       <c r="D107" s="414"/>
       <c r="E107" s="417"/>
       <c r="F107" s="417"/>
@@ -29202,11 +29284,11 @@
       </c>
     </row>
     <row r="108" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="432"/>
+      <c r="A108" s="430"/>
       <c r="B108" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C108" s="432"/>
+      <c r="C108" s="430"/>
       <c r="D108" s="414"/>
       <c r="E108" s="417"/>
       <c r="F108" s="417" t="s">
@@ -29311,11 +29393,11 @@
       </c>
     </row>
     <row r="109" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="432"/>
+      <c r="A109" s="430"/>
       <c r="B109" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C109" s="432"/>
+      <c r="C109" s="430"/>
       <c r="D109" s="414"/>
       <c r="E109" s="417"/>
       <c r="F109" s="417"/>
@@ -29418,13 +29500,13 @@
       </c>
     </row>
     <row r="110" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="432" t="s">
+      <c r="A110" s="430" t="s">
         <v>1301</v>
       </c>
       <c r="B110" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C110" s="432" t="s">
+      <c r="C110" s="430" t="s">
         <v>1305</v>
       </c>
       <c r="D110" s="414" t="s">
@@ -29524,11 +29606,11 @@
       </c>
     </row>
     <row r="111" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="432"/>
+      <c r="A111" s="430"/>
       <c r="B111" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C111" s="432"/>
+      <c r="C111" s="430"/>
       <c r="D111" s="414"/>
       <c r="E111" s="417"/>
       <c r="F111" s="417"/>
@@ -29623,11 +29705,11 @@
       </c>
     </row>
     <row r="112" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="432"/>
+      <c r="A112" s="430"/>
       <c r="B112" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C112" s="432"/>
+      <c r="C112" s="430"/>
       <c r="D112" s="414"/>
       <c r="E112" s="417"/>
       <c r="F112" s="417" t="s">
@@ -29721,11 +29803,11 @@
       </c>
     </row>
     <row r="113" spans="1:46" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A113" s="432"/>
+      <c r="A113" s="430"/>
       <c r="B113" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C113" s="432"/>
+      <c r="C113" s="430"/>
       <c r="D113" s="414"/>
       <c r="E113" s="417"/>
       <c r="F113" s="417"/>
@@ -29820,13 +29902,13 @@
       </c>
     </row>
     <row r="114" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="432" t="s">
+      <c r="A114" s="430" t="s">
         <v>1300</v>
       </c>
       <c r="B114" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C114" s="432" t="s">
+      <c r="C114" s="430" t="s">
         <v>1305</v>
       </c>
       <c r="D114" s="414" t="s">
@@ -29932,11 +30014,11 @@
       </c>
     </row>
     <row r="115" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="432"/>
+      <c r="A115" s="430"/>
       <c r="B115" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C115" s="432"/>
+      <c r="C115" s="430"/>
       <c r="D115" s="414"/>
       <c r="E115" s="417"/>
       <c r="F115" s="417"/>
@@ -30037,11 +30119,11 @@
       </c>
     </row>
     <row r="116" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="432"/>
+      <c r="A116" s="430"/>
       <c r="B116" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C116" s="432"/>
+      <c r="C116" s="430"/>
       <c r="D116" s="414"/>
       <c r="E116" s="417"/>
       <c r="F116" s="417" t="s">
@@ -30141,11 +30223,11 @@
       </c>
     </row>
     <row r="117" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="432"/>
+      <c r="A117" s="430"/>
       <c r="B117" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C117" s="432"/>
+      <c r="C117" s="430"/>
       <c r="D117" s="414"/>
       <c r="E117" s="417"/>
       <c r="F117" s="417"/>
@@ -30246,13 +30328,13 @@
       </c>
     </row>
     <row r="118" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="432" t="s">
+      <c r="A118" s="430" t="s">
         <v>1300</v>
       </c>
       <c r="B118" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C118" s="432" t="s">
+      <c r="C118" s="430" t="s">
         <v>1307</v>
       </c>
       <c r="D118" s="414" t="s">
@@ -30355,11 +30437,11 @@
       </c>
     </row>
     <row r="119" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="432"/>
+      <c r="A119" s="430"/>
       <c r="B119" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C119" s="432"/>
+      <c r="C119" s="430"/>
       <c r="D119" s="414"/>
       <c r="E119" s="417"/>
       <c r="F119" s="417"/>
@@ -30457,11 +30539,11 @@
       </c>
     </row>
     <row r="120" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="432"/>
+      <c r="A120" s="430"/>
       <c r="B120" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C120" s="432"/>
+      <c r="C120" s="430"/>
       <c r="D120" s="414"/>
       <c r="E120" s="417"/>
       <c r="F120" s="417" t="s">
@@ -30558,11 +30640,11 @@
       </c>
     </row>
     <row r="121" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="432"/>
+      <c r="A121" s="430"/>
       <c r="B121" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C121" s="432"/>
+      <c r="C121" s="430"/>
       <c r="D121" s="414"/>
       <c r="E121" s="417"/>
       <c r="F121" s="417"/>
@@ -30660,13 +30742,13 @@
       </c>
     </row>
     <row r="122" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="432" t="s">
+      <c r="A122" s="430" t="s">
         <v>1302</v>
       </c>
       <c r="B122" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C122" s="432" t="s">
+      <c r="C122" s="430" t="s">
         <v>1306</v>
       </c>
       <c r="D122" s="414" t="s">
@@ -30769,11 +30851,11 @@
       </c>
     </row>
     <row r="123" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="432"/>
+      <c r="A123" s="430"/>
       <c r="B123" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C123" s="432"/>
+      <c r="C123" s="430"/>
       <c r="D123" s="414"/>
       <c r="E123" s="417"/>
       <c r="F123" s="417"/>
@@ -30874,11 +30956,11 @@
       </c>
     </row>
     <row r="124" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="432"/>
+      <c r="A124" s="430"/>
       <c r="B124" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C124" s="432"/>
+      <c r="C124" s="430"/>
       <c r="D124" s="414"/>
       <c r="E124" s="417"/>
       <c r="F124" s="417" t="s">
@@ -30975,11 +31057,11 @@
       </c>
     </row>
     <row r="125" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="432"/>
+      <c r="A125" s="430"/>
       <c r="B125" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C125" s="432"/>
+      <c r="C125" s="430"/>
       <c r="D125" s="414"/>
       <c r="E125" s="417"/>
       <c r="F125" s="417"/>
@@ -31077,13 +31159,13 @@
       </c>
     </row>
     <row r="126" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="432" t="s">
+      <c r="A126" s="430" t="s">
         <v>1302</v>
       </c>
       <c r="B126" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C126" s="432" t="s">
+      <c r="C126" s="430" t="s">
         <v>1306</v>
       </c>
       <c r="D126" s="414" t="s">
@@ -31188,11 +31270,11 @@
       </c>
     </row>
     <row r="127" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="432"/>
+      <c r="A127" s="430"/>
       <c r="B127" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C127" s="432"/>
+      <c r="C127" s="430"/>
       <c r="D127" s="414"/>
       <c r="E127" s="417"/>
       <c r="F127" s="417"/>
@@ -31289,11 +31371,11 @@
       </c>
     </row>
     <row r="128" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="432"/>
+      <c r="A128" s="430"/>
       <c r="B128" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C128" s="432"/>
+      <c r="C128" s="430"/>
       <c r="D128" s="414"/>
       <c r="E128" s="417"/>
       <c r="F128" s="417" t="s">
@@ -31389,11 +31471,11 @@
       </c>
     </row>
     <row r="129" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="432"/>
+      <c r="A129" s="430"/>
       <c r="B129" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C129" s="432"/>
+      <c r="C129" s="430"/>
       <c r="D129" s="414"/>
       <c r="E129" s="417"/>
       <c r="F129" s="417"/>
@@ -31487,13 +31569,13 @@
       </c>
     </row>
     <row r="130" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="432" t="s">
+      <c r="A130" s="430" t="s">
         <v>1302</v>
       </c>
       <c r="B130" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C130" s="432" t="s">
+      <c r="C130" s="430" t="s">
         <v>1306</v>
       </c>
       <c r="D130" s="414" t="s">
@@ -31599,11 +31681,11 @@
       </c>
     </row>
     <row r="131" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="432"/>
+      <c r="A131" s="430"/>
       <c r="B131" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C131" s="432"/>
+      <c r="C131" s="430"/>
       <c r="D131" s="414"/>
       <c r="E131" s="417"/>
       <c r="F131" s="417"/>
@@ -31701,11 +31783,11 @@
       </c>
     </row>
     <row r="132" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="432"/>
+      <c r="A132" s="430"/>
       <c r="B132" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C132" s="432"/>
+      <c r="C132" s="430"/>
       <c r="D132" s="414"/>
       <c r="E132" s="417"/>
       <c r="F132" s="417" t="s">
@@ -31802,11 +31884,11 @@
       </c>
     </row>
     <row r="133" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="432"/>
+      <c r="A133" s="430"/>
       <c r="B133" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C133" s="432"/>
+      <c r="C133" s="430"/>
       <c r="D133" s="414"/>
       <c r="E133" s="417"/>
       <c r="F133" s="417"/>
@@ -31901,13 +31983,13 @@
       </c>
     </row>
     <row r="134" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="432" t="s">
+      <c r="A134" s="430" t="s">
         <v>1302</v>
       </c>
       <c r="B134" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C134" s="432" t="s">
+      <c r="C134" s="430" t="s">
         <v>1308</v>
       </c>
       <c r="D134" s="414" t="s">
@@ -32010,11 +32092,11 @@
       </c>
     </row>
     <row r="135" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="432"/>
+      <c r="A135" s="430"/>
       <c r="B135" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C135" s="432"/>
+      <c r="C135" s="430"/>
       <c r="D135" s="414"/>
       <c r="E135" s="417"/>
       <c r="F135" s="417"/>
@@ -32112,11 +32194,11 @@
       </c>
     </row>
     <row r="136" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="432"/>
+      <c r="A136" s="430"/>
       <c r="B136" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C136" s="432"/>
+      <c r="C136" s="430"/>
       <c r="D136" s="414"/>
       <c r="E136" s="417"/>
       <c r="F136" s="417" t="s">
@@ -32213,11 +32295,11 @@
       </c>
     </row>
     <row r="137" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="432"/>
+      <c r="A137" s="430"/>
       <c r="B137" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C137" s="432"/>
+      <c r="C137" s="430"/>
       <c r="D137" s="414"/>
       <c r="E137" s="417"/>
       <c r="F137" s="417"/>
@@ -32312,13 +32394,13 @@
       </c>
     </row>
     <row r="138" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="432" t="s">
+      <c r="A138" s="430" t="s">
         <v>1304</v>
       </c>
       <c r="B138" s="120" t="s">
         <v>1465</v>
       </c>
-      <c r="C138" s="432" t="s">
+      <c r="C138" s="430" t="s">
         <v>1305</v>
       </c>
       <c r="D138" s="414" t="s">
@@ -32427,11 +32509,11 @@
       </c>
     </row>
     <row r="139" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="432"/>
+      <c r="A139" s="430"/>
       <c r="B139" s="120" t="s">
         <v>1465</v>
       </c>
-      <c r="C139" s="432"/>
+      <c r="C139" s="430"/>
       <c r="D139" s="414"/>
       <c r="E139" s="417"/>
       <c r="F139" s="417"/>
@@ -32532,11 +32614,11 @@
       </c>
     </row>
     <row r="140" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="432"/>
+      <c r="A140" s="430"/>
       <c r="B140" s="120" t="s">
         <v>1465</v>
       </c>
-      <c r="C140" s="432"/>
+      <c r="C140" s="430"/>
       <c r="D140" s="414"/>
       <c r="E140" s="417"/>
       <c r="F140" s="417" t="s">
@@ -32639,11 +32721,11 @@
       </c>
     </row>
     <row r="141" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="432"/>
+      <c r="A141" s="430"/>
       <c r="B141" s="120" t="s">
         <v>1465</v>
       </c>
-      <c r="C141" s="432"/>
+      <c r="C141" s="430"/>
       <c r="D141" s="414"/>
       <c r="E141" s="417"/>
       <c r="F141" s="417"/>
@@ -32744,13 +32826,13 @@
       </c>
     </row>
     <row r="142" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="432" t="s">
+      <c r="A142" s="430" t="s">
         <v>1299</v>
       </c>
       <c r="B142" s="120" t="s">
         <v>313</v>
       </c>
-      <c r="C142" s="432" t="s">
+      <c r="C142" s="430" t="s">
         <v>1305</v>
       </c>
       <c r="D142" s="414" t="s">
@@ -32852,11 +32934,11 @@
       </c>
     </row>
     <row r="143" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="432"/>
+      <c r="A143" s="430"/>
       <c r="B143" s="120" t="s">
         <v>313</v>
       </c>
-      <c r="C143" s="432"/>
+      <c r="C143" s="430"/>
       <c r="D143" s="414"/>
       <c r="E143" s="417"/>
       <c r="F143" s="417"/>
@@ -32952,11 +33034,11 @@
       </c>
     </row>
     <row r="144" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="432"/>
+      <c r="A144" s="430"/>
       <c r="B144" s="120" t="s">
         <v>313</v>
       </c>
-      <c r="C144" s="432"/>
+      <c r="C144" s="430"/>
       <c r="D144" s="414"/>
       <c r="E144" s="417"/>
       <c r="F144" s="417" t="s">
@@ -33048,11 +33130,11 @@
       </c>
     </row>
     <row r="145" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="432"/>
+      <c r="A145" s="430"/>
       <c r="B145" s="120" t="s">
         <v>313</v>
       </c>
-      <c r="C145" s="432"/>
+      <c r="C145" s="430"/>
       <c r="D145" s="414"/>
       <c r="E145" s="417"/>
       <c r="F145" s="417"/>
@@ -39291,90 +39373,208 @@
     <filterColumn colId="22" showButton="0"/>
   </autoFilter>
   <mergeCells count="310">
-    <mergeCell ref="A198:A201"/>
-    <mergeCell ref="C198:C201"/>
-    <mergeCell ref="D198:D201"/>
-    <mergeCell ref="E198:E201"/>
-    <mergeCell ref="F198:F199"/>
-    <mergeCell ref="F200:F201"/>
-    <mergeCell ref="A202:A205"/>
-    <mergeCell ref="C202:C205"/>
-    <mergeCell ref="D202:D205"/>
-    <mergeCell ref="E202:E205"/>
-    <mergeCell ref="F202:F203"/>
-    <mergeCell ref="F204:F205"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="D190:D193"/>
-    <mergeCell ref="E190:E193"/>
-    <mergeCell ref="F190:F191"/>
-    <mergeCell ref="F192:F193"/>
-    <mergeCell ref="A194:A197"/>
-    <mergeCell ref="C194:C197"/>
-    <mergeCell ref="D194:D197"/>
-    <mergeCell ref="E194:E197"/>
-    <mergeCell ref="F194:F195"/>
-    <mergeCell ref="F196:F197"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="C182:C185"/>
-    <mergeCell ref="D182:D185"/>
-    <mergeCell ref="E182:E185"/>
-    <mergeCell ref="F182:F183"/>
-    <mergeCell ref="F184:F185"/>
-    <mergeCell ref="A186:A189"/>
-    <mergeCell ref="C186:C189"/>
-    <mergeCell ref="D186:D189"/>
-    <mergeCell ref="E186:E189"/>
-    <mergeCell ref="F186:F187"/>
-    <mergeCell ref="F188:F189"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="C166:C169"/>
-    <mergeCell ref="D166:D169"/>
-    <mergeCell ref="E166:E169"/>
-    <mergeCell ref="F166:F167"/>
-    <mergeCell ref="F168:F169"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="C158:C161"/>
-    <mergeCell ref="D158:D161"/>
-    <mergeCell ref="E158:E161"/>
-    <mergeCell ref="F158:F159"/>
-    <mergeCell ref="F160:F161"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="C162:C165"/>
-    <mergeCell ref="D162:D165"/>
-    <mergeCell ref="E162:E165"/>
-    <mergeCell ref="F162:F163"/>
-    <mergeCell ref="F164:F165"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="D98:D101"/>
-    <mergeCell ref="E98:E101"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="D90:D93"/>
-    <mergeCell ref="E90:E93"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="D94:D97"/>
-    <mergeCell ref="E94:E97"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="A178:A181"/>
+    <mergeCell ref="C178:C181"/>
+    <mergeCell ref="D178:D181"/>
+    <mergeCell ref="E178:E181"/>
+    <mergeCell ref="F178:F179"/>
+    <mergeCell ref="F180:F181"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="C170:C173"/>
+    <mergeCell ref="D170:D173"/>
+    <mergeCell ref="E170:E173"/>
+    <mergeCell ref="F170:F171"/>
+    <mergeCell ref="F172:F173"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="D174:D177"/>
+    <mergeCell ref="E174:E177"/>
+    <mergeCell ref="F174:F175"/>
+    <mergeCell ref="F176:F177"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="D154:D157"/>
+    <mergeCell ref="E154:E157"/>
+    <mergeCell ref="F154:F155"/>
+    <mergeCell ref="F156:F157"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="D146:D149"/>
+    <mergeCell ref="E146:E149"/>
+    <mergeCell ref="F146:F147"/>
+    <mergeCell ref="F148:F149"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="D150:D153"/>
+    <mergeCell ref="E150:E153"/>
+    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="E134:E137"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="D142:D145"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="E110:E113"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="E126:E129"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="D134:D137"/>
+    <mergeCell ref="E138:E141"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="E142:E145"/>
+    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="F128:F129"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="D102:D105"/>
+    <mergeCell ref="D106:D109"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="E102:E105"/>
+    <mergeCell ref="E106:E109"/>
+    <mergeCell ref="D110:D113"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="A126:A129"/>
     <mergeCell ref="C130:C133"/>
     <mergeCell ref="C134:C137"/>
     <mergeCell ref="C138:C141"/>
@@ -39399,208 +39599,90 @@
     <mergeCell ref="C102:C105"/>
     <mergeCell ref="C106:C109"/>
     <mergeCell ref="C110:C113"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="E102:E105"/>
-    <mergeCell ref="E106:E109"/>
-    <mergeCell ref="D110:D113"/>
-    <mergeCell ref="D114:D117"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="D102:D105"/>
-    <mergeCell ref="D106:D109"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="F128:F129"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="E134:E137"/>
-    <mergeCell ref="D138:D141"/>
-    <mergeCell ref="D142:D145"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="F144:F145"/>
-    <mergeCell ref="E110:E113"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="E118:E121"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="E126:E129"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="D134:D137"/>
-    <mergeCell ref="E138:E141"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="E142:E145"/>
-    <mergeCell ref="D126:D129"/>
-    <mergeCell ref="E130:E133"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="D146:D149"/>
-    <mergeCell ref="E146:E149"/>
-    <mergeCell ref="F146:F147"/>
-    <mergeCell ref="F148:F149"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="D150:D153"/>
-    <mergeCell ref="E150:E153"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="A154:A157"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="D154:D157"/>
-    <mergeCell ref="E154:E157"/>
-    <mergeCell ref="F154:F155"/>
-    <mergeCell ref="F156:F157"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="D62:D65"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="A178:A181"/>
-    <mergeCell ref="C178:C181"/>
-    <mergeCell ref="D178:D181"/>
-    <mergeCell ref="E178:E181"/>
-    <mergeCell ref="F178:F179"/>
-    <mergeCell ref="F180:F181"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="C170:C173"/>
-    <mergeCell ref="D170:D173"/>
-    <mergeCell ref="E170:E173"/>
-    <mergeCell ref="F170:F171"/>
-    <mergeCell ref="F172:F173"/>
-    <mergeCell ref="A174:A177"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="D174:D177"/>
-    <mergeCell ref="E174:E177"/>
-    <mergeCell ref="F174:F175"/>
-    <mergeCell ref="F176:F177"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="D98:D101"/>
+    <mergeCell ref="E98:E101"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="D90:D93"/>
+    <mergeCell ref="E90:E93"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="D94:D97"/>
+    <mergeCell ref="E94:E97"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="C166:C169"/>
+    <mergeCell ref="D166:D169"/>
+    <mergeCell ref="E166:E169"/>
+    <mergeCell ref="F166:F167"/>
+    <mergeCell ref="F168:F169"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="C158:C161"/>
+    <mergeCell ref="D158:D161"/>
+    <mergeCell ref="E158:E161"/>
+    <mergeCell ref="F158:F159"/>
+    <mergeCell ref="F160:F161"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="C162:C165"/>
+    <mergeCell ref="D162:D165"/>
+    <mergeCell ref="E162:E165"/>
+    <mergeCell ref="F162:F163"/>
+    <mergeCell ref="F164:F165"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="C182:C185"/>
+    <mergeCell ref="D182:D185"/>
+    <mergeCell ref="E182:E185"/>
+    <mergeCell ref="F182:F183"/>
+    <mergeCell ref="F184:F185"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="C186:C189"/>
+    <mergeCell ref="D186:D189"/>
+    <mergeCell ref="E186:E189"/>
+    <mergeCell ref="F186:F187"/>
+    <mergeCell ref="F188:F189"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="D190:D193"/>
+    <mergeCell ref="E190:E193"/>
+    <mergeCell ref="F190:F191"/>
+    <mergeCell ref="F192:F193"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="C194:C197"/>
+    <mergeCell ref="D194:D197"/>
+    <mergeCell ref="E194:E197"/>
+    <mergeCell ref="F194:F195"/>
+    <mergeCell ref="F196:F197"/>
+    <mergeCell ref="A198:A201"/>
+    <mergeCell ref="C198:C201"/>
+    <mergeCell ref="D198:D201"/>
+    <mergeCell ref="E198:E201"/>
+    <mergeCell ref="F198:F199"/>
+    <mergeCell ref="F200:F201"/>
+    <mergeCell ref="A202:A205"/>
+    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="D202:D205"/>
+    <mergeCell ref="E202:E205"/>
+    <mergeCell ref="F202:F203"/>
+    <mergeCell ref="F204:F205"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -44240,10 +44322,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3600" topLeftCell="A65" activePane="bottomLeft"/>
-      <selection activeCell="C12" sqref="C12"/>
-      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3600" topLeftCell="A94" activePane="bottomLeft"/>
+      <selection activeCell="Q52" sqref="Q52"/>
+      <selection pane="bottomLeft" activeCell="P87" sqref="P87:P114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -48882,7 +48964,7 @@
         <v>4</v>
       </c>
       <c r="C96" s="80" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="D96" s="80" t="s">
         <v>1519</v>
@@ -50250,6 +50332,11 @@
   <autoFilter ref="A24:R114"/>
   <dataConsolidate/>
   <mergeCells count="21">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E1:F1"/>
@@ -50266,11 +50353,6 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <conditionalFormatting sqref="C25:D25 F25:H25 C47:H47">
     <cfRule type="expression" dxfId="151" priority="149">

--- a/descent/src/descent.xlsx
+++ b/descent/src/descent.xlsx
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6856" uniqueCount="1678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6856" uniqueCount="1680">
   <si>
     <t>Descent V2</t>
   </si>
@@ -5454,6 +5454,12 @@
   </si>
   <si>
     <t>Gauntlets of Power</t>
+  </si>
+  <si>
+    <t>Halberd</t>
+  </si>
+  <si>
+    <t>Flash Powder</t>
   </si>
 </sst>
 </file>
@@ -7488,13 +7494,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -13103,13 +13109,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="C24:C25"/>
@@ -13126,6 +13125,13 @@
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13142,7 +13148,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15318,7 +15324,7 @@
         <v>488</v>
       </c>
       <c r="B40" s="255" t="s">
-        <v>488</v>
+        <v>1678</v>
       </c>
       <c r="C40" s="152" t="s">
         <v>653</v>
@@ -15514,7 +15520,7 @@
         <v>959</v>
       </c>
       <c r="B43" s="267" t="s">
-        <v>959</v>
+        <v>1679</v>
       </c>
       <c r="C43" s="157" t="s">
         <v>653</v>
@@ -18231,11 +18237,11 @@
       <c r="C1" s="95"/>
       <c r="D1" s="16"/>
       <c r="E1" s="32"/>
-      <c r="I1" s="432" t="s">
+      <c r="I1" s="431" t="s">
         <v>308</v>
       </c>
-      <c r="J1" s="432"/>
-      <c r="K1" s="432"/>
+      <c r="J1" s="431"/>
+      <c r="K1" s="431"/>
       <c r="M1" s="29" t="s">
         <v>221</v>
       </c>
@@ -18250,18 +18256,18 @@
       <c r="R1" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="S1" s="431" t="s">
+      <c r="S1" s="430" t="s">
         <v>261</v>
       </c>
-      <c r="T1" s="431"/>
-      <c r="U1" s="431" t="s">
+      <c r="T1" s="430"/>
+      <c r="U1" s="430" t="s">
         <v>262</v>
       </c>
-      <c r="V1" s="431"/>
-      <c r="W1" s="431" t="s">
+      <c r="V1" s="430"/>
+      <c r="W1" s="430" t="s">
         <v>263</v>
       </c>
-      <c r="X1" s="431"/>
+      <c r="X1" s="430"/>
       <c r="AA1" s="63"/>
       <c r="AB1" s="115"/>
       <c r="AC1" s="115"/>
@@ -28646,13 +28652,13 @@
       </c>
     </row>
     <row r="102" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="430" t="s">
+      <c r="A102" s="432" t="s">
         <v>1301</v>
       </c>
       <c r="B102" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C102" s="430" t="s">
+      <c r="C102" s="432" t="s">
         <v>1305</v>
       </c>
       <c r="D102" s="414" t="s">
@@ -28755,11 +28761,11 @@
       </c>
     </row>
     <row r="103" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="430"/>
+      <c r="A103" s="432"/>
       <c r="B103" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C103" s="430"/>
+      <c r="C103" s="432"/>
       <c r="D103" s="414"/>
       <c r="E103" s="417"/>
       <c r="F103" s="417"/>
@@ -28857,11 +28863,11 @@
       </c>
     </row>
     <row r="104" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="430"/>
+      <c r="A104" s="432"/>
       <c r="B104" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C104" s="430"/>
+      <c r="C104" s="432"/>
       <c r="D104" s="414"/>
       <c r="E104" s="417"/>
       <c r="F104" s="417" t="s">
@@ -28958,11 +28964,11 @@
       </c>
     </row>
     <row r="105" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="430"/>
+      <c r="A105" s="432"/>
       <c r="B105" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C105" s="430"/>
+      <c r="C105" s="432"/>
       <c r="D105" s="414"/>
       <c r="E105" s="417"/>
       <c r="F105" s="417"/>
@@ -29060,13 +29066,13 @@
       </c>
     </row>
     <row r="106" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="430" t="s">
+      <c r="A106" s="432" t="s">
         <v>1301</v>
       </c>
       <c r="B106" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C106" s="430" t="s">
+      <c r="C106" s="432" t="s">
         <v>1305</v>
       </c>
       <c r="D106" s="414" t="s">
@@ -29177,11 +29183,11 @@
       </c>
     </row>
     <row r="107" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="430"/>
+      <c r="A107" s="432"/>
       <c r="B107" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C107" s="430"/>
+      <c r="C107" s="432"/>
       <c r="D107" s="414"/>
       <c r="E107" s="417"/>
       <c r="F107" s="417"/>
@@ -29284,11 +29290,11 @@
       </c>
     </row>
     <row r="108" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="430"/>
+      <c r="A108" s="432"/>
       <c r="B108" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C108" s="430"/>
+      <c r="C108" s="432"/>
       <c r="D108" s="414"/>
       <c r="E108" s="417"/>
       <c r="F108" s="417" t="s">
@@ -29393,11 +29399,11 @@
       </c>
     </row>
     <row r="109" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="430"/>
+      <c r="A109" s="432"/>
       <c r="B109" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C109" s="430"/>
+      <c r="C109" s="432"/>
       <c r="D109" s="414"/>
       <c r="E109" s="417"/>
       <c r="F109" s="417"/>
@@ -29500,13 +29506,13 @@
       </c>
     </row>
     <row r="110" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="430" t="s">
+      <c r="A110" s="432" t="s">
         <v>1301</v>
       </c>
       <c r="B110" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C110" s="430" t="s">
+      <c r="C110" s="432" t="s">
         <v>1305</v>
       </c>
       <c r="D110" s="414" t="s">
@@ -29606,11 +29612,11 @@
       </c>
     </row>
     <row r="111" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="430"/>
+      <c r="A111" s="432"/>
       <c r="B111" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C111" s="430"/>
+      <c r="C111" s="432"/>
       <c r="D111" s="414"/>
       <c r="E111" s="417"/>
       <c r="F111" s="417"/>
@@ -29705,11 +29711,11 @@
       </c>
     </row>
     <row r="112" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="430"/>
+      <c r="A112" s="432"/>
       <c r="B112" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C112" s="430"/>
+      <c r="C112" s="432"/>
       <c r="D112" s="414"/>
       <c r="E112" s="417"/>
       <c r="F112" s="417" t="s">
@@ -29803,11 +29809,11 @@
       </c>
     </row>
     <row r="113" spans="1:46" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A113" s="430"/>
+      <c r="A113" s="432"/>
       <c r="B113" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C113" s="430"/>
+      <c r="C113" s="432"/>
       <c r="D113" s="414"/>
       <c r="E113" s="417"/>
       <c r="F113" s="417"/>
@@ -29902,13 +29908,13 @@
       </c>
     </row>
     <row r="114" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="430" t="s">
+      <c r="A114" s="432" t="s">
         <v>1300</v>
       </c>
       <c r="B114" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C114" s="430" t="s">
+      <c r="C114" s="432" t="s">
         <v>1305</v>
       </c>
       <c r="D114" s="414" t="s">
@@ -30014,11 +30020,11 @@
       </c>
     </row>
     <row r="115" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="430"/>
+      <c r="A115" s="432"/>
       <c r="B115" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C115" s="430"/>
+      <c r="C115" s="432"/>
       <c r="D115" s="414"/>
       <c r="E115" s="417"/>
       <c r="F115" s="417"/>
@@ -30119,11 +30125,11 @@
       </c>
     </row>
     <row r="116" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="430"/>
+      <c r="A116" s="432"/>
       <c r="B116" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C116" s="430"/>
+      <c r="C116" s="432"/>
       <c r="D116" s="414"/>
       <c r="E116" s="417"/>
       <c r="F116" s="417" t="s">
@@ -30223,11 +30229,11 @@
       </c>
     </row>
     <row r="117" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="430"/>
+      <c r="A117" s="432"/>
       <c r="B117" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C117" s="430"/>
+      <c r="C117" s="432"/>
       <c r="D117" s="414"/>
       <c r="E117" s="417"/>
       <c r="F117" s="417"/>
@@ -30328,13 +30334,13 @@
       </c>
     </row>
     <row r="118" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="430" t="s">
+      <c r="A118" s="432" t="s">
         <v>1300</v>
       </c>
       <c r="B118" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C118" s="430" t="s">
+      <c r="C118" s="432" t="s">
         <v>1307</v>
       </c>
       <c r="D118" s="414" t="s">
@@ -30437,11 +30443,11 @@
       </c>
     </row>
     <row r="119" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="430"/>
+      <c r="A119" s="432"/>
       <c r="B119" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C119" s="430"/>
+      <c r="C119" s="432"/>
       <c r="D119" s="414"/>
       <c r="E119" s="417"/>
       <c r="F119" s="417"/>
@@ -30539,11 +30545,11 @@
       </c>
     </row>
     <row r="120" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="430"/>
+      <c r="A120" s="432"/>
       <c r="B120" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C120" s="430"/>
+      <c r="C120" s="432"/>
       <c r="D120" s="414"/>
       <c r="E120" s="417"/>
       <c r="F120" s="417" t="s">
@@ -30640,11 +30646,11 @@
       </c>
     </row>
     <row r="121" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="430"/>
+      <c r="A121" s="432"/>
       <c r="B121" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C121" s="430"/>
+      <c r="C121" s="432"/>
       <c r="D121" s="414"/>
       <c r="E121" s="417"/>
       <c r="F121" s="417"/>
@@ -30742,13 +30748,13 @@
       </c>
     </row>
     <row r="122" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="430" t="s">
+      <c r="A122" s="432" t="s">
         <v>1302</v>
       </c>
       <c r="B122" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C122" s="430" t="s">
+      <c r="C122" s="432" t="s">
         <v>1306</v>
       </c>
       <c r="D122" s="414" t="s">
@@ -30851,11 +30857,11 @@
       </c>
     </row>
     <row r="123" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="430"/>
+      <c r="A123" s="432"/>
       <c r="B123" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C123" s="430"/>
+      <c r="C123" s="432"/>
       <c r="D123" s="414"/>
       <c r="E123" s="417"/>
       <c r="F123" s="417"/>
@@ -30956,11 +30962,11 @@
       </c>
     </row>
     <row r="124" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="430"/>
+      <c r="A124" s="432"/>
       <c r="B124" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C124" s="430"/>
+      <c r="C124" s="432"/>
       <c r="D124" s="414"/>
       <c r="E124" s="417"/>
       <c r="F124" s="417" t="s">
@@ -31057,11 +31063,11 @@
       </c>
     </row>
     <row r="125" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="430"/>
+      <c r="A125" s="432"/>
       <c r="B125" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C125" s="430"/>
+      <c r="C125" s="432"/>
       <c r="D125" s="414"/>
       <c r="E125" s="417"/>
       <c r="F125" s="417"/>
@@ -31159,13 +31165,13 @@
       </c>
     </row>
     <row r="126" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="430" t="s">
+      <c r="A126" s="432" t="s">
         <v>1302</v>
       </c>
       <c r="B126" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C126" s="430" t="s">
+      <c r="C126" s="432" t="s">
         <v>1306</v>
       </c>
       <c r="D126" s="414" t="s">
@@ -31270,11 +31276,11 @@
       </c>
     </row>
     <row r="127" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="430"/>
+      <c r="A127" s="432"/>
       <c r="B127" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C127" s="430"/>
+      <c r="C127" s="432"/>
       <c r="D127" s="414"/>
       <c r="E127" s="417"/>
       <c r="F127" s="417"/>
@@ -31371,11 +31377,11 @@
       </c>
     </row>
     <row r="128" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="430"/>
+      <c r="A128" s="432"/>
       <c r="B128" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C128" s="430"/>
+      <c r="C128" s="432"/>
       <c r="D128" s="414"/>
       <c r="E128" s="417"/>
       <c r="F128" s="417" t="s">
@@ -31471,11 +31477,11 @@
       </c>
     </row>
     <row r="129" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="430"/>
+      <c r="A129" s="432"/>
       <c r="B129" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C129" s="430"/>
+      <c r="C129" s="432"/>
       <c r="D129" s="414"/>
       <c r="E129" s="417"/>
       <c r="F129" s="417"/>
@@ -31569,13 +31575,13 @@
       </c>
     </row>
     <row r="130" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="430" t="s">
+      <c r="A130" s="432" t="s">
         <v>1302</v>
       </c>
       <c r="B130" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C130" s="430" t="s">
+      <c r="C130" s="432" t="s">
         <v>1306</v>
       </c>
       <c r="D130" s="414" t="s">
@@ -31681,11 +31687,11 @@
       </c>
     </row>
     <row r="131" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="430"/>
+      <c r="A131" s="432"/>
       <c r="B131" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C131" s="430"/>
+      <c r="C131" s="432"/>
       <c r="D131" s="414"/>
       <c r="E131" s="417"/>
       <c r="F131" s="417"/>
@@ -31783,11 +31789,11 @@
       </c>
     </row>
     <row r="132" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="430"/>
+      <c r="A132" s="432"/>
       <c r="B132" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C132" s="430"/>
+      <c r="C132" s="432"/>
       <c r="D132" s="414"/>
       <c r="E132" s="417"/>
       <c r="F132" s="417" t="s">
@@ -31884,11 +31890,11 @@
       </c>
     </row>
     <row r="133" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="430"/>
+      <c r="A133" s="432"/>
       <c r="B133" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C133" s="430"/>
+      <c r="C133" s="432"/>
       <c r="D133" s="414"/>
       <c r="E133" s="417"/>
       <c r="F133" s="417"/>
@@ -31983,13 +31989,13 @@
       </c>
     </row>
     <row r="134" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="430" t="s">
+      <c r="A134" s="432" t="s">
         <v>1302</v>
       </c>
       <c r="B134" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C134" s="430" t="s">
+      <c r="C134" s="432" t="s">
         <v>1308</v>
       </c>
       <c r="D134" s="414" t="s">
@@ -32092,11 +32098,11 @@
       </c>
     </row>
     <row r="135" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="430"/>
+      <c r="A135" s="432"/>
       <c r="B135" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C135" s="430"/>
+      <c r="C135" s="432"/>
       <c r="D135" s="414"/>
       <c r="E135" s="417"/>
       <c r="F135" s="417"/>
@@ -32194,11 +32200,11 @@
       </c>
     </row>
     <row r="136" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="430"/>
+      <c r="A136" s="432"/>
       <c r="B136" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C136" s="430"/>
+      <c r="C136" s="432"/>
       <c r="D136" s="414"/>
       <c r="E136" s="417"/>
       <c r="F136" s="417" t="s">
@@ -32295,11 +32301,11 @@
       </c>
     </row>
     <row r="137" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="430"/>
+      <c r="A137" s="432"/>
       <c r="B137" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C137" s="430"/>
+      <c r="C137" s="432"/>
       <c r="D137" s="414"/>
       <c r="E137" s="417"/>
       <c r="F137" s="417"/>
@@ -32394,13 +32400,13 @@
       </c>
     </row>
     <row r="138" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="430" t="s">
+      <c r="A138" s="432" t="s">
         <v>1304</v>
       </c>
       <c r="B138" s="120" t="s">
         <v>1465</v>
       </c>
-      <c r="C138" s="430" t="s">
+      <c r="C138" s="432" t="s">
         <v>1305</v>
       </c>
       <c r="D138" s="414" t="s">
@@ -32509,11 +32515,11 @@
       </c>
     </row>
     <row r="139" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="430"/>
+      <c r="A139" s="432"/>
       <c r="B139" s="120" t="s">
         <v>1465</v>
       </c>
-      <c r="C139" s="430"/>
+      <c r="C139" s="432"/>
       <c r="D139" s="414"/>
       <c r="E139" s="417"/>
       <c r="F139" s="417"/>
@@ -32614,11 +32620,11 @@
       </c>
     </row>
     <row r="140" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="430"/>
+      <c r="A140" s="432"/>
       <c r="B140" s="120" t="s">
         <v>1465</v>
       </c>
-      <c r="C140" s="430"/>
+      <c r="C140" s="432"/>
       <c r="D140" s="414"/>
       <c r="E140" s="417"/>
       <c r="F140" s="417" t="s">
@@ -32721,11 +32727,11 @@
       </c>
     </row>
     <row r="141" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="430"/>
+      <c r="A141" s="432"/>
       <c r="B141" s="120" t="s">
         <v>1465</v>
       </c>
-      <c r="C141" s="430"/>
+      <c r="C141" s="432"/>
       <c r="D141" s="414"/>
       <c r="E141" s="417"/>
       <c r="F141" s="417"/>
@@ -32826,13 +32832,13 @@
       </c>
     </row>
     <row r="142" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="430" t="s">
+      <c r="A142" s="432" t="s">
         <v>1299</v>
       </c>
       <c r="B142" s="120" t="s">
         <v>313</v>
       </c>
-      <c r="C142" s="430" t="s">
+      <c r="C142" s="432" t="s">
         <v>1305</v>
       </c>
       <c r="D142" s="414" t="s">
@@ -32934,11 +32940,11 @@
       </c>
     </row>
     <row r="143" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="430"/>
+      <c r="A143" s="432"/>
       <c r="B143" s="120" t="s">
         <v>313</v>
       </c>
-      <c r="C143" s="430"/>
+      <c r="C143" s="432"/>
       <c r="D143" s="414"/>
       <c r="E143" s="417"/>
       <c r="F143" s="417"/>
@@ -33034,11 +33040,11 @@
       </c>
     </row>
     <row r="144" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="430"/>
+      <c r="A144" s="432"/>
       <c r="B144" s="120" t="s">
         <v>313</v>
       </c>
-      <c r="C144" s="430"/>
+      <c r="C144" s="432"/>
       <c r="D144" s="414"/>
       <c r="E144" s="417"/>
       <c r="F144" s="417" t="s">
@@ -33130,11 +33136,11 @@
       </c>
     </row>
     <row r="145" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="430"/>
+      <c r="A145" s="432"/>
       <c r="B145" s="120" t="s">
         <v>313</v>
       </c>
-      <c r="C145" s="430"/>
+      <c r="C145" s="432"/>
       <c r="D145" s="414"/>
       <c r="E145" s="417"/>
       <c r="F145" s="417"/>
@@ -39373,36 +39379,262 @@
     <filterColumn colId="22" showButton="0"/>
   </autoFilter>
   <mergeCells count="310">
-    <mergeCell ref="A178:A181"/>
-    <mergeCell ref="C178:C181"/>
-    <mergeCell ref="D178:D181"/>
-    <mergeCell ref="E178:E181"/>
-    <mergeCell ref="F178:F179"/>
-    <mergeCell ref="F180:F181"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="C170:C173"/>
-    <mergeCell ref="D170:D173"/>
-    <mergeCell ref="E170:E173"/>
-    <mergeCell ref="F170:F171"/>
-    <mergeCell ref="F172:F173"/>
-    <mergeCell ref="A174:A177"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="D174:D177"/>
-    <mergeCell ref="E174:E177"/>
-    <mergeCell ref="F174:F175"/>
-    <mergeCell ref="F176:F177"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="A198:A201"/>
+    <mergeCell ref="C198:C201"/>
+    <mergeCell ref="D198:D201"/>
+    <mergeCell ref="E198:E201"/>
+    <mergeCell ref="F198:F199"/>
+    <mergeCell ref="F200:F201"/>
+    <mergeCell ref="A202:A205"/>
+    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="D202:D205"/>
+    <mergeCell ref="E202:E205"/>
+    <mergeCell ref="F202:F203"/>
+    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="D190:D193"/>
+    <mergeCell ref="E190:E193"/>
+    <mergeCell ref="F190:F191"/>
+    <mergeCell ref="F192:F193"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="C194:C197"/>
+    <mergeCell ref="D194:D197"/>
+    <mergeCell ref="E194:E197"/>
+    <mergeCell ref="F194:F195"/>
+    <mergeCell ref="F196:F197"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="C182:C185"/>
+    <mergeCell ref="D182:D185"/>
+    <mergeCell ref="E182:E185"/>
+    <mergeCell ref="F182:F183"/>
+    <mergeCell ref="F184:F185"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="C186:C189"/>
+    <mergeCell ref="D186:D189"/>
+    <mergeCell ref="E186:E189"/>
+    <mergeCell ref="F186:F187"/>
+    <mergeCell ref="F188:F189"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="C166:C169"/>
+    <mergeCell ref="D166:D169"/>
+    <mergeCell ref="E166:E169"/>
+    <mergeCell ref="F166:F167"/>
+    <mergeCell ref="F168:F169"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="C158:C161"/>
+    <mergeCell ref="D158:D161"/>
+    <mergeCell ref="E158:E161"/>
+    <mergeCell ref="F158:F159"/>
+    <mergeCell ref="F160:F161"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="C162:C165"/>
+    <mergeCell ref="D162:D165"/>
+    <mergeCell ref="E162:E165"/>
+    <mergeCell ref="F162:F163"/>
+    <mergeCell ref="F164:F165"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="D98:D101"/>
+    <mergeCell ref="E98:E101"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="D90:D93"/>
+    <mergeCell ref="E90:E93"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="D94:D97"/>
+    <mergeCell ref="E94:E97"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="E102:E105"/>
+    <mergeCell ref="E106:E109"/>
+    <mergeCell ref="D110:D113"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="D102:D105"/>
+    <mergeCell ref="D106:D109"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="F128:F129"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="E134:E137"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="D142:D145"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="E110:E113"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="E126:E129"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="D134:D137"/>
+    <mergeCell ref="E138:E141"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="E142:E145"/>
+    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="D146:D149"/>
+    <mergeCell ref="E146:E149"/>
+    <mergeCell ref="F146:F147"/>
+    <mergeCell ref="F148:F149"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="D150:D153"/>
+    <mergeCell ref="E150:E153"/>
+    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="F152:F153"/>
     <mergeCell ref="A154:A157"/>
     <mergeCell ref="C154:C157"/>
     <mergeCell ref="D154:D157"/>
@@ -39427,262 +39659,36 @@
     <mergeCell ref="E70:E73"/>
     <mergeCell ref="F70:F71"/>
     <mergeCell ref="F72:F73"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="D146:D149"/>
-    <mergeCell ref="E146:E149"/>
-    <mergeCell ref="F146:F147"/>
-    <mergeCell ref="F148:F149"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="D150:D153"/>
-    <mergeCell ref="E150:E153"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="E134:E137"/>
-    <mergeCell ref="D138:D141"/>
-    <mergeCell ref="D142:D145"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="F144:F145"/>
-    <mergeCell ref="E110:E113"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="E118:E121"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="E126:E129"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="D134:D137"/>
-    <mergeCell ref="E138:E141"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="E142:E145"/>
-    <mergeCell ref="D126:D129"/>
-    <mergeCell ref="E130:E133"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="F128:F129"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="D102:D105"/>
-    <mergeCell ref="D106:D109"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="E102:E105"/>
-    <mergeCell ref="E106:E109"/>
-    <mergeCell ref="D110:D113"/>
-    <mergeCell ref="D114:D117"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="D98:D101"/>
-    <mergeCell ref="E98:E101"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="D90:D93"/>
-    <mergeCell ref="E90:E93"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="D94:D97"/>
-    <mergeCell ref="E94:E97"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="C166:C169"/>
-    <mergeCell ref="D166:D169"/>
-    <mergeCell ref="E166:E169"/>
-    <mergeCell ref="F166:F167"/>
-    <mergeCell ref="F168:F169"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="C158:C161"/>
-    <mergeCell ref="D158:D161"/>
-    <mergeCell ref="E158:E161"/>
-    <mergeCell ref="F158:F159"/>
-    <mergeCell ref="F160:F161"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="C162:C165"/>
-    <mergeCell ref="D162:D165"/>
-    <mergeCell ref="E162:E165"/>
-    <mergeCell ref="F162:F163"/>
-    <mergeCell ref="F164:F165"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="C182:C185"/>
-    <mergeCell ref="D182:D185"/>
-    <mergeCell ref="E182:E185"/>
-    <mergeCell ref="F182:F183"/>
-    <mergeCell ref="F184:F185"/>
-    <mergeCell ref="A186:A189"/>
-    <mergeCell ref="C186:C189"/>
-    <mergeCell ref="D186:D189"/>
-    <mergeCell ref="E186:E189"/>
-    <mergeCell ref="F186:F187"/>
-    <mergeCell ref="F188:F189"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="D190:D193"/>
-    <mergeCell ref="E190:E193"/>
-    <mergeCell ref="F190:F191"/>
-    <mergeCell ref="F192:F193"/>
-    <mergeCell ref="A194:A197"/>
-    <mergeCell ref="C194:C197"/>
-    <mergeCell ref="D194:D197"/>
-    <mergeCell ref="E194:E197"/>
-    <mergeCell ref="F194:F195"/>
-    <mergeCell ref="F196:F197"/>
-    <mergeCell ref="A198:A201"/>
-    <mergeCell ref="C198:C201"/>
-    <mergeCell ref="D198:D201"/>
-    <mergeCell ref="E198:E201"/>
-    <mergeCell ref="F198:F199"/>
-    <mergeCell ref="F200:F201"/>
-    <mergeCell ref="A202:A205"/>
-    <mergeCell ref="C202:C205"/>
-    <mergeCell ref="D202:D205"/>
-    <mergeCell ref="E202:E205"/>
-    <mergeCell ref="F202:F203"/>
-    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="A178:A181"/>
+    <mergeCell ref="C178:C181"/>
+    <mergeCell ref="D178:D181"/>
+    <mergeCell ref="E178:E181"/>
+    <mergeCell ref="F178:F179"/>
+    <mergeCell ref="F180:F181"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="C170:C173"/>
+    <mergeCell ref="D170:D173"/>
+    <mergeCell ref="E170:E173"/>
+    <mergeCell ref="F170:F171"/>
+    <mergeCell ref="F172:F173"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="D174:D177"/>
+    <mergeCell ref="E174:E177"/>
+    <mergeCell ref="F174:F175"/>
+    <mergeCell ref="F176:F177"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -50332,11 +50338,6 @@
   <autoFilter ref="A24:R114"/>
   <dataConsolidate/>
   <mergeCells count="21">
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E1:F1"/>
@@ -50353,6 +50354,11 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <conditionalFormatting sqref="C25:D25 F25:H25 C47:H47">
     <cfRule type="expression" dxfId="151" priority="149">

--- a/descent/src/descent.xlsx
+++ b/descent/src/descent.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="13095" activeTab="9"/>
+    <workbookView minimized="1" xWindow="120" yWindow="120" windowWidth="28515" windowHeight="13095" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Contenu" sheetId="8" r:id="rId1"/>
@@ -5274,9 +5274,6 @@
     <t>Tinashi the Wanderer</t>
   </si>
   <si>
-    <t>Each time you defeat a monster, you recover 1 Fatigue.</t>
-  </si>
-  <si>
     <t>Use during your turn to choose an empty space within 3 spaces of your figure. Remove your figure from the map and place it in the chosen space.</t>
   </si>
   <si>
@@ -5305,9 +5302,6 @@
   </si>
   <si>
     <t>Rendiel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you roll 1 or more blanks when rolling defense dice, add 1 Shield to your defense results. </t>
   </si>
   <si>
     <t xml:space="preserve">Use when you are attacked, after you roll defense dice, to test Knowledge and Awareness. For each test you pass, add 3 Shield to your defense results. </t>
@@ -5460,6 +5454,12 @@
   </si>
   <si>
     <t>Flash Powder</t>
+  </si>
+  <si>
+    <t>Si vous obtenez 1 ou plusieurs faces vierges en lançant les dés de défense, ajoutez 1 ≤ à votre résultat de défense.</t>
+  </si>
+  <si>
+    <t>Chaque fois que vous réussissez à vaincre un monstre, vous récupérez 1 ∏.</t>
   </si>
 </sst>
 </file>
@@ -7494,13 +7494,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -13109,6 +13109,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="C24:C25"/>
@@ -13125,13 +13132,6 @@
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13146,7 +13146,7 @@
   </sheetPr>
   <dimension ref="A1:V94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
@@ -15324,7 +15324,7 @@
         <v>488</v>
       </c>
       <c r="B40" s="255" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="C40" s="152" t="s">
         <v>653</v>
@@ -15520,7 +15520,7 @@
         <v>959</v>
       </c>
       <c r="B43" s="267" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="C43" s="157" t="s">
         <v>653</v>
@@ -17708,7 +17708,7 @@
         <v>298</v>
       </c>
       <c r="B84" s="169" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="C84" s="170" t="s">
         <v>483</v>
@@ -17748,7 +17748,7 @@
         <v>299</v>
       </c>
       <c r="B85" s="122" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="C85" s="123" t="s">
         <v>483</v>
@@ -17808,7 +17808,7 @@
         <v>295</v>
       </c>
       <c r="B86" s="122" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="C86" s="123" t="s">
         <v>483</v>
@@ -17848,7 +17848,7 @@
         <v>297</v>
       </c>
       <c r="B87" s="122" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="C87" s="123" t="s">
         <v>483</v>
@@ -17912,7 +17912,7 @@
         <v>296</v>
       </c>
       <c r="B88" s="122" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="C88" s="123" t="s">
         <v>483</v>
@@ -17976,7 +17976,7 @@
         <v>300</v>
       </c>
       <c r="B89" s="163" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="C89" s="164" t="s">
         <v>483</v>
@@ -18034,7 +18034,7 @@
         <v>1501</v>
       </c>
       <c r="B90" s="151" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="C90" s="392" t="s">
         <v>653</v>
@@ -18094,7 +18094,7 @@
         <v>1505</v>
       </c>
       <c r="B91" s="156" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="C91" s="393" t="s">
         <v>653</v>
@@ -18131,7 +18131,7 @@
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>438</v>
@@ -18142,7 +18142,7 @@
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>438</v>
@@ -18153,7 +18153,7 @@
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>438</v>
@@ -18237,11 +18237,11 @@
       <c r="C1" s="95"/>
       <c r="D1" s="16"/>
       <c r="E1" s="32"/>
-      <c r="I1" s="431" t="s">
+      <c r="I1" s="432" t="s">
         <v>308</v>
       </c>
-      <c r="J1" s="431"/>
-      <c r="K1" s="431"/>
+      <c r="J1" s="432"/>
+      <c r="K1" s="432"/>
       <c r="M1" s="29" t="s">
         <v>221</v>
       </c>
@@ -18256,18 +18256,18 @@
       <c r="R1" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="S1" s="430" t="s">
+      <c r="S1" s="431" t="s">
         <v>261</v>
       </c>
-      <c r="T1" s="430"/>
-      <c r="U1" s="430" t="s">
+      <c r="T1" s="431"/>
+      <c r="U1" s="431" t="s">
         <v>262</v>
       </c>
-      <c r="V1" s="430"/>
-      <c r="W1" s="430" t="s">
+      <c r="V1" s="431"/>
+      <c r="W1" s="431" t="s">
         <v>263</v>
       </c>
-      <c r="X1" s="430"/>
+      <c r="X1" s="431"/>
       <c r="AA1" s="63"/>
       <c r="AB1" s="115"/>
       <c r="AC1" s="115"/>
@@ -28652,13 +28652,13 @@
       </c>
     </row>
     <row r="102" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="432" t="s">
+      <c r="A102" s="430" t="s">
         <v>1301</v>
       </c>
       <c r="B102" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C102" s="432" t="s">
+      <c r="C102" s="430" t="s">
         <v>1305</v>
       </c>
       <c r="D102" s="414" t="s">
@@ -28761,11 +28761,11 @@
       </c>
     </row>
     <row r="103" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="432"/>
+      <c r="A103" s="430"/>
       <c r="B103" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C103" s="432"/>
+      <c r="C103" s="430"/>
       <c r="D103" s="414"/>
       <c r="E103" s="417"/>
       <c r="F103" s="417"/>
@@ -28863,11 +28863,11 @@
       </c>
     </row>
     <row r="104" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="432"/>
+      <c r="A104" s="430"/>
       <c r="B104" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C104" s="432"/>
+      <c r="C104" s="430"/>
       <c r="D104" s="414"/>
       <c r="E104" s="417"/>
       <c r="F104" s="417" t="s">
@@ -28964,11 +28964,11 @@
       </c>
     </row>
     <row r="105" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="432"/>
+      <c r="A105" s="430"/>
       <c r="B105" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C105" s="432"/>
+      <c r="C105" s="430"/>
       <c r="D105" s="414"/>
       <c r="E105" s="417"/>
       <c r="F105" s="417"/>
@@ -29066,13 +29066,13 @@
       </c>
     </row>
     <row r="106" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="432" t="s">
+      <c r="A106" s="430" t="s">
         <v>1301</v>
       </c>
       <c r="B106" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C106" s="432" t="s">
+      <c r="C106" s="430" t="s">
         <v>1305</v>
       </c>
       <c r="D106" s="414" t="s">
@@ -29183,11 +29183,11 @@
       </c>
     </row>
     <row r="107" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="432"/>
+      <c r="A107" s="430"/>
       <c r="B107" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C107" s="432"/>
+      <c r="C107" s="430"/>
       <c r="D107" s="414"/>
       <c r="E107" s="417"/>
       <c r="F107" s="417"/>
@@ -29290,11 +29290,11 @@
       </c>
     </row>
     <row r="108" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="432"/>
+      <c r="A108" s="430"/>
       <c r="B108" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C108" s="432"/>
+      <c r="C108" s="430"/>
       <c r="D108" s="414"/>
       <c r="E108" s="417"/>
       <c r="F108" s="417" t="s">
@@ -29399,11 +29399,11 @@
       </c>
     </row>
     <row r="109" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="432"/>
+      <c r="A109" s="430"/>
       <c r="B109" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C109" s="432"/>
+      <c r="C109" s="430"/>
       <c r="D109" s="414"/>
       <c r="E109" s="417"/>
       <c r="F109" s="417"/>
@@ -29506,13 +29506,13 @@
       </c>
     </row>
     <row r="110" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="432" t="s">
+      <c r="A110" s="430" t="s">
         <v>1301</v>
       </c>
       <c r="B110" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C110" s="432" t="s">
+      <c r="C110" s="430" t="s">
         <v>1305</v>
       </c>
       <c r="D110" s="414" t="s">
@@ -29612,11 +29612,11 @@
       </c>
     </row>
     <row r="111" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="432"/>
+      <c r="A111" s="430"/>
       <c r="B111" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C111" s="432"/>
+      <c r="C111" s="430"/>
       <c r="D111" s="414"/>
       <c r="E111" s="417"/>
       <c r="F111" s="417"/>
@@ -29711,11 +29711,11 @@
       </c>
     </row>
     <row r="112" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="432"/>
+      <c r="A112" s="430"/>
       <c r="B112" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C112" s="432"/>
+      <c r="C112" s="430"/>
       <c r="D112" s="414"/>
       <c r="E112" s="417"/>
       <c r="F112" s="417" t="s">
@@ -29809,11 +29809,11 @@
       </c>
     </row>
     <row r="113" spans="1:46" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A113" s="432"/>
+      <c r="A113" s="430"/>
       <c r="B113" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C113" s="432"/>
+      <c r="C113" s="430"/>
       <c r="D113" s="414"/>
       <c r="E113" s="417"/>
       <c r="F113" s="417"/>
@@ -29908,13 +29908,13 @@
       </c>
     </row>
     <row r="114" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="432" t="s">
+      <c r="A114" s="430" t="s">
         <v>1300</v>
       </c>
       <c r="B114" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C114" s="432" t="s">
+      <c r="C114" s="430" t="s">
         <v>1305</v>
       </c>
       <c r="D114" s="414" t="s">
@@ -30020,11 +30020,11 @@
       </c>
     </row>
     <row r="115" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="432"/>
+      <c r="A115" s="430"/>
       <c r="B115" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C115" s="432"/>
+      <c r="C115" s="430"/>
       <c r="D115" s="414"/>
       <c r="E115" s="417"/>
       <c r="F115" s="417"/>
@@ -30125,11 +30125,11 @@
       </c>
     </row>
     <row r="116" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="432"/>
+      <c r="A116" s="430"/>
       <c r="B116" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C116" s="432"/>
+      <c r="C116" s="430"/>
       <c r="D116" s="414"/>
       <c r="E116" s="417"/>
       <c r="F116" s="417" t="s">
@@ -30229,11 +30229,11 @@
       </c>
     </row>
     <row r="117" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="432"/>
+      <c r="A117" s="430"/>
       <c r="B117" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C117" s="432"/>
+      <c r="C117" s="430"/>
       <c r="D117" s="414"/>
       <c r="E117" s="417"/>
       <c r="F117" s="417"/>
@@ -30334,13 +30334,13 @@
       </c>
     </row>
     <row r="118" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="432" t="s">
+      <c r="A118" s="430" t="s">
         <v>1300</v>
       </c>
       <c r="B118" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C118" s="432" t="s">
+      <c r="C118" s="430" t="s">
         <v>1307</v>
       </c>
       <c r="D118" s="414" t="s">
@@ -30443,11 +30443,11 @@
       </c>
     </row>
     <row r="119" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="432"/>
+      <c r="A119" s="430"/>
       <c r="B119" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C119" s="432"/>
+      <c r="C119" s="430"/>
       <c r="D119" s="414"/>
       <c r="E119" s="417"/>
       <c r="F119" s="417"/>
@@ -30545,11 +30545,11 @@
       </c>
     </row>
     <row r="120" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="432"/>
+      <c r="A120" s="430"/>
       <c r="B120" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C120" s="432"/>
+      <c r="C120" s="430"/>
       <c r="D120" s="414"/>
       <c r="E120" s="417"/>
       <c r="F120" s="417" t="s">
@@ -30646,11 +30646,11 @@
       </c>
     </row>
     <row r="121" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="432"/>
+      <c r="A121" s="430"/>
       <c r="B121" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C121" s="432"/>
+      <c r="C121" s="430"/>
       <c r="D121" s="414"/>
       <c r="E121" s="417"/>
       <c r="F121" s="417"/>
@@ -30748,13 +30748,13 @@
       </c>
     </row>
     <row r="122" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="432" t="s">
+      <c r="A122" s="430" t="s">
         <v>1302</v>
       </c>
       <c r="B122" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C122" s="432" t="s">
+      <c r="C122" s="430" t="s">
         <v>1306</v>
       </c>
       <c r="D122" s="414" t="s">
@@ -30857,11 +30857,11 @@
       </c>
     </row>
     <row r="123" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="432"/>
+      <c r="A123" s="430"/>
       <c r="B123" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C123" s="432"/>
+      <c r="C123" s="430"/>
       <c r="D123" s="414"/>
       <c r="E123" s="417"/>
       <c r="F123" s="417"/>
@@ -30962,11 +30962,11 @@
       </c>
     </row>
     <row r="124" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="432"/>
+      <c r="A124" s="430"/>
       <c r="B124" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C124" s="432"/>
+      <c r="C124" s="430"/>
       <c r="D124" s="414"/>
       <c r="E124" s="417"/>
       <c r="F124" s="417" t="s">
@@ -31063,11 +31063,11 @@
       </c>
     </row>
     <row r="125" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="432"/>
+      <c r="A125" s="430"/>
       <c r="B125" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C125" s="432"/>
+      <c r="C125" s="430"/>
       <c r="D125" s="414"/>
       <c r="E125" s="417"/>
       <c r="F125" s="417"/>
@@ -31165,13 +31165,13 @@
       </c>
     </row>
     <row r="126" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="432" t="s">
+      <c r="A126" s="430" t="s">
         <v>1302</v>
       </c>
       <c r="B126" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C126" s="432" t="s">
+      <c r="C126" s="430" t="s">
         <v>1306</v>
       </c>
       <c r="D126" s="414" t="s">
@@ -31276,11 +31276,11 @@
       </c>
     </row>
     <row r="127" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="432"/>
+      <c r="A127" s="430"/>
       <c r="B127" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C127" s="432"/>
+      <c r="C127" s="430"/>
       <c r="D127" s="414"/>
       <c r="E127" s="417"/>
       <c r="F127" s="417"/>
@@ -31377,11 +31377,11 @@
       </c>
     </row>
     <row r="128" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="432"/>
+      <c r="A128" s="430"/>
       <c r="B128" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C128" s="432"/>
+      <c r="C128" s="430"/>
       <c r="D128" s="414"/>
       <c r="E128" s="417"/>
       <c r="F128" s="417" t="s">
@@ -31477,11 +31477,11 @@
       </c>
     </row>
     <row r="129" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="432"/>
+      <c r="A129" s="430"/>
       <c r="B129" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C129" s="432"/>
+      <c r="C129" s="430"/>
       <c r="D129" s="414"/>
       <c r="E129" s="417"/>
       <c r="F129" s="417"/>
@@ -31575,13 +31575,13 @@
       </c>
     </row>
     <row r="130" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="432" t="s">
+      <c r="A130" s="430" t="s">
         <v>1302</v>
       </c>
       <c r="B130" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C130" s="432" t="s">
+      <c r="C130" s="430" t="s">
         <v>1306</v>
       </c>
       <c r="D130" s="414" t="s">
@@ -31687,11 +31687,11 @@
       </c>
     </row>
     <row r="131" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="432"/>
+      <c r="A131" s="430"/>
       <c r="B131" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C131" s="432"/>
+      <c r="C131" s="430"/>
       <c r="D131" s="414"/>
       <c r="E131" s="417"/>
       <c r="F131" s="417"/>
@@ -31789,11 +31789,11 @@
       </c>
     </row>
     <row r="132" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="432"/>
+      <c r="A132" s="430"/>
       <c r="B132" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C132" s="432"/>
+      <c r="C132" s="430"/>
       <c r="D132" s="414"/>
       <c r="E132" s="417"/>
       <c r="F132" s="417" t="s">
@@ -31890,11 +31890,11 @@
       </c>
     </row>
     <row r="133" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="432"/>
+      <c r="A133" s="430"/>
       <c r="B133" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C133" s="432"/>
+      <c r="C133" s="430"/>
       <c r="D133" s="414"/>
       <c r="E133" s="417"/>
       <c r="F133" s="417"/>
@@ -31989,13 +31989,13 @@
       </c>
     </row>
     <row r="134" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="432" t="s">
+      <c r="A134" s="430" t="s">
         <v>1302</v>
       </c>
       <c r="B134" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C134" s="432" t="s">
+      <c r="C134" s="430" t="s">
         <v>1308</v>
       </c>
       <c r="D134" s="414" t="s">
@@ -32098,11 +32098,11 @@
       </c>
     </row>
     <row r="135" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="432"/>
+      <c r="A135" s="430"/>
       <c r="B135" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C135" s="432"/>
+      <c r="C135" s="430"/>
       <c r="D135" s="414"/>
       <c r="E135" s="417"/>
       <c r="F135" s="417"/>
@@ -32200,11 +32200,11 @@
       </c>
     </row>
     <row r="136" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="432"/>
+      <c r="A136" s="430"/>
       <c r="B136" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C136" s="432"/>
+      <c r="C136" s="430"/>
       <c r="D136" s="414"/>
       <c r="E136" s="417"/>
       <c r="F136" s="417" t="s">
@@ -32301,11 +32301,11 @@
       </c>
     </row>
     <row r="137" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="432"/>
+      <c r="A137" s="430"/>
       <c r="B137" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C137" s="432"/>
+      <c r="C137" s="430"/>
       <c r="D137" s="414"/>
       <c r="E137" s="417"/>
       <c r="F137" s="417"/>
@@ -32400,13 +32400,13 @@
       </c>
     </row>
     <row r="138" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="432" t="s">
+      <c r="A138" s="430" t="s">
         <v>1304</v>
       </c>
       <c r="B138" s="120" t="s">
         <v>1465</v>
       </c>
-      <c r="C138" s="432" t="s">
+      <c r="C138" s="430" t="s">
         <v>1305</v>
       </c>
       <c r="D138" s="414" t="s">
@@ -32515,11 +32515,11 @@
       </c>
     </row>
     <row r="139" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="432"/>
+      <c r="A139" s="430"/>
       <c r="B139" s="120" t="s">
         <v>1465</v>
       </c>
-      <c r="C139" s="432"/>
+      <c r="C139" s="430"/>
       <c r="D139" s="414"/>
       <c r="E139" s="417"/>
       <c r="F139" s="417"/>
@@ -32620,11 +32620,11 @@
       </c>
     </row>
     <row r="140" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="432"/>
+      <c r="A140" s="430"/>
       <c r="B140" s="120" t="s">
         <v>1465</v>
       </c>
-      <c r="C140" s="432"/>
+      <c r="C140" s="430"/>
       <c r="D140" s="414"/>
       <c r="E140" s="417"/>
       <c r="F140" s="417" t="s">
@@ -32727,11 +32727,11 @@
       </c>
     </row>
     <row r="141" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="432"/>
+      <c r="A141" s="430"/>
       <c r="B141" s="120" t="s">
         <v>1465</v>
       </c>
-      <c r="C141" s="432"/>
+      <c r="C141" s="430"/>
       <c r="D141" s="414"/>
       <c r="E141" s="417"/>
       <c r="F141" s="417"/>
@@ -32832,13 +32832,13 @@
       </c>
     </row>
     <row r="142" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="432" t="s">
+      <c r="A142" s="430" t="s">
         <v>1299</v>
       </c>
       <c r="B142" s="120" t="s">
         <v>313</v>
       </c>
-      <c r="C142" s="432" t="s">
+      <c r="C142" s="430" t="s">
         <v>1305</v>
       </c>
       <c r="D142" s="414" t="s">
@@ -32940,11 +32940,11 @@
       </c>
     </row>
     <row r="143" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="432"/>
+      <c r="A143" s="430"/>
       <c r="B143" s="120" t="s">
         <v>313</v>
       </c>
-      <c r="C143" s="432"/>
+      <c r="C143" s="430"/>
       <c r="D143" s="414"/>
       <c r="E143" s="417"/>
       <c r="F143" s="417"/>
@@ -33040,11 +33040,11 @@
       </c>
     </row>
     <row r="144" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="432"/>
+      <c r="A144" s="430"/>
       <c r="B144" s="120" t="s">
         <v>313</v>
       </c>
-      <c r="C144" s="432"/>
+      <c r="C144" s="430"/>
       <c r="D144" s="414"/>
       <c r="E144" s="417"/>
       <c r="F144" s="417" t="s">
@@ -33136,11 +33136,11 @@
       </c>
     </row>
     <row r="145" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="432"/>
+      <c r="A145" s="430"/>
       <c r="B145" s="120" t="s">
         <v>313</v>
       </c>
-      <c r="C145" s="432"/>
+      <c r="C145" s="430"/>
       <c r="D145" s="414"/>
       <c r="E145" s="417"/>
       <c r="F145" s="417"/>
@@ -36581,7 +36581,7 @@
         <v>236</v>
       </c>
       <c r="Z179" s="45" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="AA179" s="326"/>
       <c r="AB179" s="326"/>
@@ -36791,7 +36791,7 @@
         <v>236</v>
       </c>
       <c r="Z181" s="45" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="AA181" s="326"/>
       <c r="AB181" s="326"/>
@@ -37123,7 +37123,7 @@
         <v>236</v>
       </c>
       <c r="Z184" s="39" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="AA184" s="325" t="s">
         <v>1055</v>
@@ -37229,7 +37229,7 @@
         <v>236</v>
       </c>
       <c r="Z185" s="39" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="AA185" s="325" t="s">
         <v>1055</v>
@@ -37657,7 +37657,7 @@
         <v>236</v>
       </c>
       <c r="Z189" s="39" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="AA189" s="325" t="s">
         <v>1047</v>
@@ -38281,7 +38281,7 @@
         <v>226</v>
       </c>
       <c r="Z195" s="39" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="AA195" s="325" t="s">
         <v>1115</v>
@@ -38486,7 +38486,7 @@
         <v>226</v>
       </c>
       <c r="Z197" s="39" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="AA197" s="325" t="s">
         <v>1115</v>
@@ -39047,7 +39047,7 @@
         <v>226</v>
       </c>
       <c r="Z202" s="45" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="AA202" s="325"/>
       <c r="AB202" s="325"/>
@@ -39142,7 +39142,7 @@
         <v>226</v>
       </c>
       <c r="Z203" s="45" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="AA203" s="325"/>
       <c r="AB203" s="325"/>
@@ -39241,7 +39241,7 @@
         <v>226</v>
       </c>
       <c r="Z204" s="45" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="AA204" s="325"/>
       <c r="AB204" s="325"/>
@@ -39336,7 +39336,7 @@
         <v>226</v>
       </c>
       <c r="Z205" s="44" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="AA205" s="333"/>
       <c r="AB205" s="333"/>
@@ -39379,90 +39379,208 @@
     <filterColumn colId="22" showButton="0"/>
   </autoFilter>
   <mergeCells count="310">
-    <mergeCell ref="A198:A201"/>
-    <mergeCell ref="C198:C201"/>
-    <mergeCell ref="D198:D201"/>
-    <mergeCell ref="E198:E201"/>
-    <mergeCell ref="F198:F199"/>
-    <mergeCell ref="F200:F201"/>
-    <mergeCell ref="A202:A205"/>
-    <mergeCell ref="C202:C205"/>
-    <mergeCell ref="D202:D205"/>
-    <mergeCell ref="E202:E205"/>
-    <mergeCell ref="F202:F203"/>
-    <mergeCell ref="F204:F205"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="D190:D193"/>
-    <mergeCell ref="E190:E193"/>
-    <mergeCell ref="F190:F191"/>
-    <mergeCell ref="F192:F193"/>
-    <mergeCell ref="A194:A197"/>
-    <mergeCell ref="C194:C197"/>
-    <mergeCell ref="D194:D197"/>
-    <mergeCell ref="E194:E197"/>
-    <mergeCell ref="F194:F195"/>
-    <mergeCell ref="F196:F197"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="C182:C185"/>
-    <mergeCell ref="D182:D185"/>
-    <mergeCell ref="E182:E185"/>
-    <mergeCell ref="F182:F183"/>
-    <mergeCell ref="F184:F185"/>
-    <mergeCell ref="A186:A189"/>
-    <mergeCell ref="C186:C189"/>
-    <mergeCell ref="D186:D189"/>
-    <mergeCell ref="E186:E189"/>
-    <mergeCell ref="F186:F187"/>
-    <mergeCell ref="F188:F189"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="C166:C169"/>
-    <mergeCell ref="D166:D169"/>
-    <mergeCell ref="E166:E169"/>
-    <mergeCell ref="F166:F167"/>
-    <mergeCell ref="F168:F169"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="C158:C161"/>
-    <mergeCell ref="D158:D161"/>
-    <mergeCell ref="E158:E161"/>
-    <mergeCell ref="F158:F159"/>
-    <mergeCell ref="F160:F161"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="C162:C165"/>
-    <mergeCell ref="D162:D165"/>
-    <mergeCell ref="E162:E165"/>
-    <mergeCell ref="F162:F163"/>
-    <mergeCell ref="F164:F165"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="D98:D101"/>
-    <mergeCell ref="E98:E101"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="D90:D93"/>
-    <mergeCell ref="E90:E93"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="D94:D97"/>
-    <mergeCell ref="E94:E97"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="A178:A181"/>
+    <mergeCell ref="C178:C181"/>
+    <mergeCell ref="D178:D181"/>
+    <mergeCell ref="E178:E181"/>
+    <mergeCell ref="F178:F179"/>
+    <mergeCell ref="F180:F181"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="C170:C173"/>
+    <mergeCell ref="D170:D173"/>
+    <mergeCell ref="E170:E173"/>
+    <mergeCell ref="F170:F171"/>
+    <mergeCell ref="F172:F173"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="D174:D177"/>
+    <mergeCell ref="E174:E177"/>
+    <mergeCell ref="F174:F175"/>
+    <mergeCell ref="F176:F177"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="D154:D157"/>
+    <mergeCell ref="E154:E157"/>
+    <mergeCell ref="F154:F155"/>
+    <mergeCell ref="F156:F157"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="D146:D149"/>
+    <mergeCell ref="E146:E149"/>
+    <mergeCell ref="F146:F147"/>
+    <mergeCell ref="F148:F149"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="D150:D153"/>
+    <mergeCell ref="E150:E153"/>
+    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="E134:E137"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="D142:D145"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="E110:E113"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="E126:E129"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="D134:D137"/>
+    <mergeCell ref="E138:E141"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="E142:E145"/>
+    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="F128:F129"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="D102:D105"/>
+    <mergeCell ref="D106:D109"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="E102:E105"/>
+    <mergeCell ref="E106:E109"/>
+    <mergeCell ref="D110:D113"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="A126:A129"/>
     <mergeCell ref="C130:C133"/>
     <mergeCell ref="C134:C137"/>
     <mergeCell ref="C138:C141"/>
@@ -39487,208 +39605,90 @@
     <mergeCell ref="C102:C105"/>
     <mergeCell ref="C106:C109"/>
     <mergeCell ref="C110:C113"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="E102:E105"/>
-    <mergeCell ref="E106:E109"/>
-    <mergeCell ref="D110:D113"/>
-    <mergeCell ref="D114:D117"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="D102:D105"/>
-    <mergeCell ref="D106:D109"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="F128:F129"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="E134:E137"/>
-    <mergeCell ref="D138:D141"/>
-    <mergeCell ref="D142:D145"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="F144:F145"/>
-    <mergeCell ref="E110:E113"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="E118:E121"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="E126:E129"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="D134:D137"/>
-    <mergeCell ref="E138:E141"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="E142:E145"/>
-    <mergeCell ref="D126:D129"/>
-    <mergeCell ref="E130:E133"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="D146:D149"/>
-    <mergeCell ref="E146:E149"/>
-    <mergeCell ref="F146:F147"/>
-    <mergeCell ref="F148:F149"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="D150:D153"/>
-    <mergeCell ref="E150:E153"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="A154:A157"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="D154:D157"/>
-    <mergeCell ref="E154:E157"/>
-    <mergeCell ref="F154:F155"/>
-    <mergeCell ref="F156:F157"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="D62:D65"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="A178:A181"/>
-    <mergeCell ref="C178:C181"/>
-    <mergeCell ref="D178:D181"/>
-    <mergeCell ref="E178:E181"/>
-    <mergeCell ref="F178:F179"/>
-    <mergeCell ref="F180:F181"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="C170:C173"/>
-    <mergeCell ref="D170:D173"/>
-    <mergeCell ref="E170:E173"/>
-    <mergeCell ref="F170:F171"/>
-    <mergeCell ref="F172:F173"/>
-    <mergeCell ref="A174:A177"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="D174:D177"/>
-    <mergeCell ref="E174:E177"/>
-    <mergeCell ref="F174:F175"/>
-    <mergeCell ref="F176:F177"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="D98:D101"/>
+    <mergeCell ref="E98:E101"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="D90:D93"/>
+    <mergeCell ref="E90:E93"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="D94:D97"/>
+    <mergeCell ref="E94:E97"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="C166:C169"/>
+    <mergeCell ref="D166:D169"/>
+    <mergeCell ref="E166:E169"/>
+    <mergeCell ref="F166:F167"/>
+    <mergeCell ref="F168:F169"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="C158:C161"/>
+    <mergeCell ref="D158:D161"/>
+    <mergeCell ref="E158:E161"/>
+    <mergeCell ref="F158:F159"/>
+    <mergeCell ref="F160:F161"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="C162:C165"/>
+    <mergeCell ref="D162:D165"/>
+    <mergeCell ref="E162:E165"/>
+    <mergeCell ref="F162:F163"/>
+    <mergeCell ref="F164:F165"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="C182:C185"/>
+    <mergeCell ref="D182:D185"/>
+    <mergeCell ref="E182:E185"/>
+    <mergeCell ref="F182:F183"/>
+    <mergeCell ref="F184:F185"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="C186:C189"/>
+    <mergeCell ref="D186:D189"/>
+    <mergeCell ref="E186:E189"/>
+    <mergeCell ref="F186:F187"/>
+    <mergeCell ref="F188:F189"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="D190:D193"/>
+    <mergeCell ref="E190:E193"/>
+    <mergeCell ref="F190:F191"/>
+    <mergeCell ref="F192:F193"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="C194:C197"/>
+    <mergeCell ref="D194:D197"/>
+    <mergeCell ref="E194:E197"/>
+    <mergeCell ref="F194:F195"/>
+    <mergeCell ref="F196:F197"/>
+    <mergeCell ref="A198:A201"/>
+    <mergeCell ref="C198:C201"/>
+    <mergeCell ref="D198:D201"/>
+    <mergeCell ref="E198:E201"/>
+    <mergeCell ref="F198:F199"/>
+    <mergeCell ref="F200:F201"/>
+    <mergeCell ref="A202:A205"/>
+    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="D202:D205"/>
+    <mergeCell ref="E202:E205"/>
+    <mergeCell ref="F202:F203"/>
+    <mergeCell ref="F204:F205"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -44329,9 +44329,9 @@
   <dimension ref="A1:R144"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3600" topLeftCell="A94" activePane="bottomLeft"/>
+      <pane ySplit="3600" topLeftCell="A102" activePane="bottomLeft"/>
       <selection activeCell="Q52" sqref="Q52"/>
-      <selection pane="bottomLeft" activeCell="P87" sqref="P87:P114"/>
+      <selection pane="bottomLeft" activeCell="R25" sqref="R25:R114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -44870,7 +44870,7 @@
         <v>1575</v>
       </c>
       <c r="E16" s="415" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="F16" s="415"/>
       <c r="I16" s="336">
@@ -45670,10 +45670,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="80" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="D33" s="80" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="E33" s="80" t="s">
         <v>653</v>
@@ -45681,13 +45681,13 @@
       <c r="F33" s="80"/>
       <c r="G33" s="80"/>
       <c r="H33" s="80" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I33" s="49">
         <v>4</v>
       </c>
       <c r="J33" s="50">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K33" s="51">
         <v>4</v>
@@ -45696,22 +45696,22 @@
         <v>152</v>
       </c>
       <c r="M33" s="53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N33" s="53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O33" s="53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P33" s="53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q33" s="54" t="s">
-        <v>1181</v>
+        <v>895</v>
       </c>
       <c r="R33" s="54" t="s">
-        <v>1182</v>
+        <v>896</v>
       </c>
     </row>
     <row r="34" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -45722,10 +45722,10 @@
         <v>2</v>
       </c>
       <c r="C34" s="80" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D34" s="80" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E34" s="80" t="s">
         <v>653</v>
@@ -45733,13 +45733,13 @@
       <c r="F34" s="80"/>
       <c r="G34" s="80"/>
       <c r="H34" s="80" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I34" s="49">
         <v>4</v>
       </c>
       <c r="J34" s="50">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K34" s="51">
         <v>4</v>
@@ -45748,22 +45748,22 @@
         <v>152</v>
       </c>
       <c r="M34" s="53">
+        <v>4</v>
+      </c>
+      <c r="N34" s="53">
         <v>3</v>
       </c>
-      <c r="N34" s="53">
-        <v>1</v>
-      </c>
       <c r="O34" s="53">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P34" s="53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q34" s="54" t="s">
-        <v>895</v>
+        <v>1181</v>
       </c>
       <c r="R34" s="54" t="s">
-        <v>896</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="35" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -45774,10 +45774,10 @@
         <v>1</v>
       </c>
       <c r="C35" s="80" t="s">
-        <v>1441</v>
+        <v>1446</v>
       </c>
       <c r="D35" s="80" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="E35" s="80" t="s">
         <v>654</v>
@@ -45785,13 +45785,13 @@
       <c r="F35" s="80"/>
       <c r="G35" s="80"/>
       <c r="H35" s="80" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I35" s="49">
         <v>5</v>
       </c>
       <c r="J35" s="50">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K35" s="51">
         <v>4</v>
@@ -45803,19 +45803,19 @@
         <v>2</v>
       </c>
       <c r="N35" s="53">
+        <v>2</v>
+      </c>
+      <c r="O35" s="53">
+        <v>4</v>
+      </c>
+      <c r="P35" s="53">
         <v>3</v>
       </c>
-      <c r="O35" s="53">
-        <v>2</v>
-      </c>
-      <c r="P35" s="53">
-        <v>4</v>
-      </c>
       <c r="Q35" s="54" t="s">
-        <v>1606</v>
+        <v>1612</v>
       </c>
       <c r="R35" s="54" t="s">
-        <v>1607</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="36" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -45878,10 +45878,10 @@
         <v>3</v>
       </c>
       <c r="C37" s="80" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="D37" s="80" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="E37" s="80" t="s">
         <v>654</v>
@@ -45889,37 +45889,37 @@
       <c r="F37" s="80"/>
       <c r="G37" s="80"/>
       <c r="H37" s="80" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I37" s="49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J37" s="50">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K37" s="51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L37" s="52" t="s">
         <v>152</v>
       </c>
       <c r="M37" s="53">
+        <v>2</v>
+      </c>
+      <c r="N37" s="53">
         <v>3</v>
       </c>
-      <c r="N37" s="53">
-        <v>2</v>
-      </c>
       <c r="O37" s="53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P37" s="53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q37" s="54" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="R37" s="54" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="38" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -45930,10 +45930,10 @@
         <v>4</v>
       </c>
       <c r="C38" s="80" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="D38" s="80" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="E38" s="80" t="s">
         <v>654</v>
@@ -45941,22 +45941,22 @@
       <c r="F38" s="80"/>
       <c r="G38" s="80"/>
       <c r="H38" s="80" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I38" s="49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J38" s="50">
         <v>8</v>
       </c>
       <c r="K38" s="51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L38" s="52" t="s">
         <v>152</v>
       </c>
       <c r="M38" s="53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N38" s="53">
         <v>2</v>
@@ -45965,13 +45965,13 @@
         <v>4</v>
       </c>
       <c r="P38" s="53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q38" s="54" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="R38" s="54" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="39" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -45982,10 +45982,10 @@
         <v>1</v>
       </c>
       <c r="C39" s="80" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="D39" s="80" t="s">
-        <v>1447</v>
+        <v>1450</v>
       </c>
       <c r="E39" s="80" t="s">
         <v>864</v>
@@ -45993,37 +45993,37 @@
       <c r="F39" s="80"/>
       <c r="G39" s="80"/>
       <c r="H39" s="80" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I39" s="49">
+        <v>3</v>
+      </c>
+      <c r="J39" s="50">
+        <v>12</v>
+      </c>
+      <c r="K39" s="51">
         <v>5</v>
-      </c>
-      <c r="J39" s="50">
-        <v>10</v>
-      </c>
-      <c r="K39" s="51">
-        <v>4</v>
       </c>
       <c r="L39" s="52" t="s">
         <v>152</v>
       </c>
       <c r="M39" s="53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N39" s="53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O39" s="53">
         <v>2</v>
       </c>
       <c r="P39" s="53">
-        <v>3</v>
-      </c>
-      <c r="Q39" s="15" t="s">
-        <v>1616</v>
+        <v>2</v>
+      </c>
+      <c r="Q39" s="54" t="s">
+        <v>1614</v>
       </c>
       <c r="R39" s="54" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="40" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -46034,10 +46034,10 @@
         <v>2</v>
       </c>
       <c r="C40" s="80" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="D40" s="80" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="E40" s="80" t="s">
         <v>864</v>
@@ -46045,37 +46045,37 @@
       <c r="F40" s="80"/>
       <c r="G40" s="80"/>
       <c r="H40" s="80" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I40" s="49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J40" s="50">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K40" s="51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L40" s="52" t="s">
         <v>152</v>
       </c>
       <c r="M40" s="53">
+        <v>4</v>
+      </c>
+      <c r="N40" s="53">
+        <v>2</v>
+      </c>
+      <c r="O40" s="53">
+        <v>2</v>
+      </c>
+      <c r="P40" s="53">
         <v>3</v>
       </c>
-      <c r="N40" s="53">
-        <v>4</v>
-      </c>
-      <c r="O40" s="53">
-        <v>2</v>
-      </c>
-      <c r="P40" s="53">
-        <v>2</v>
-      </c>
-      <c r="Q40" s="54" t="s">
-        <v>1614</v>
+      <c r="Q40" s="15" t="s">
+        <v>1616</v>
       </c>
       <c r="R40" s="54" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="41" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -46136,7 +46136,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="80" t="s">
-        <v>1618</v>
+        <v>1627</v>
       </c>
       <c r="D42" s="80"/>
       <c r="E42" s="80" t="s">
@@ -46145,37 +46145,37 @@
       <c r="F42" s="80"/>
       <c r="G42" s="80"/>
       <c r="H42" s="80" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I42" s="49">
         <v>4</v>
       </c>
       <c r="J42" s="50">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K42" s="51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L42" s="52" t="s">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="M42" s="53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N42" s="53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O42" s="53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P42" s="53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q42" s="54" t="s">
-        <v>1619</v>
+        <v>1678</v>
       </c>
       <c r="R42" s="54" t="s">
-        <v>1620</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="43" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -46195,31 +46195,31 @@
       <c r="F43" s="80"/>
       <c r="G43" s="80"/>
       <c r="H43" s="80" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I43" s="49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J43" s="50">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K43" s="51">
+        <v>4</v>
+      </c>
+      <c r="L43" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="M43" s="53">
         <v>5</v>
       </c>
-      <c r="L43" s="52" t="s">
-        <v>229</v>
-      </c>
-      <c r="M43" s="53">
-        <v>2</v>
-      </c>
       <c r="N43" s="53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O43" s="53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P43" s="53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="54" t="s">
         <v>1630</v>
@@ -46236,7 +46236,7 @@
         <v>4</v>
       </c>
       <c r="C44" s="80" t="s">
-        <v>1629</v>
+        <v>1618</v>
       </c>
       <c r="D44" s="80"/>
       <c r="E44" s="80" t="s">
@@ -46245,13 +46245,13 @@
       <c r="F44" s="80"/>
       <c r="G44" s="80"/>
       <c r="H44" s="80" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I44" s="49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J44" s="50">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K44" s="51">
         <v>4</v>
@@ -46260,22 +46260,22 @@
         <v>152</v>
       </c>
       <c r="M44" s="53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N44" s="53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O44" s="53">
+        <v>2</v>
+      </c>
+      <c r="P44" s="53">
         <v>3</v>
       </c>
-      <c r="P44" s="53">
-        <v>1</v>
-      </c>
       <c r="Q44" s="54" t="s">
-        <v>1632</v>
+        <v>1679</v>
       </c>
       <c r="R44" s="54" t="s">
-        <v>1633</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="45" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -46286,11 +46286,11 @@
         <v>1</v>
       </c>
       <c r="C45" s="80" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D45" s="80"/>
       <c r="E45" s="80" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="F45" s="80"/>
       <c r="G45" s="80"/>
@@ -46322,10 +46322,10 @@
         <v>1</v>
       </c>
       <c r="Q45" s="54" t="s">
+        <v>1622</v>
+      </c>
+      <c r="R45" s="54" t="s">
         <v>1623</v>
-      </c>
-      <c r="R45" s="54" t="s">
-        <v>1624</v>
       </c>
     </row>
     <row r="46" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -46336,11 +46336,11 @@
         <v>2</v>
       </c>
       <c r="C46" s="80" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D46" s="80"/>
       <c r="E46" s="80" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="F46" s="80"/>
       <c r="G46" s="80"/>
@@ -46372,10 +46372,10 @@
         <v>5</v>
       </c>
       <c r="Q46" s="54" t="s">
+        <v>1625</v>
+      </c>
+      <c r="R46" s="54" t="s">
         <v>1626</v>
-      </c>
-      <c r="R46" s="54" t="s">
-        <v>1627</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -46386,10 +46386,10 @@
         <v>1</v>
       </c>
       <c r="C47" s="80" t="s">
-        <v>205</v>
+        <v>567</v>
       </c>
       <c r="D47" s="80" t="s">
-        <v>967</v>
+        <v>1024</v>
       </c>
       <c r="E47" s="80" t="s">
         <v>1577</v>
@@ -46397,16 +46397,16 @@
       <c r="F47" s="80"/>
       <c r="G47" s="80"/>
       <c r="H47" s="80" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I47" s="49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J47" s="50">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K47" s="51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L47" s="52" t="s">
         <v>152</v>
@@ -46415,19 +46415,19 @@
         <v>4</v>
       </c>
       <c r="N47" s="53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O47" s="53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P47" s="53">
         <v>2</v>
       </c>
       <c r="Q47" s="402" t="s">
-        <v>1565</v>
-      </c>
-      <c r="R47" s="54" t="s">
-        <v>969</v>
+        <v>1025</v>
+      </c>
+      <c r="R47" s="402" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="48" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -46490,10 +46490,10 @@
         <v>3</v>
       </c>
       <c r="C49" s="80" t="s">
-        <v>567</v>
+        <v>1540</v>
       </c>
       <c r="D49" s="80" t="s">
-        <v>1024</v>
+        <v>1540</v>
       </c>
       <c r="E49" s="80" t="s">
         <v>1577</v>
@@ -46501,13 +46501,13 @@
       <c r="F49" s="80"/>
       <c r="G49" s="80"/>
       <c r="H49" s="80" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I49" s="49">
         <v>4</v>
       </c>
       <c r="J49" s="50">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K49" s="51">
         <v>4</v>
@@ -46516,7 +46516,7 @@
         <v>152</v>
       </c>
       <c r="M49" s="53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N49" s="53">
         <v>2</v>
@@ -46525,13 +46525,13 @@
         <v>3</v>
       </c>
       <c r="P49" s="53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q49" s="402" t="s">
-        <v>1025</v>
+        <v>1552</v>
       </c>
       <c r="R49" s="402" t="s">
-        <v>1026</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="50" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -46542,10 +46542,10 @@
         <v>4</v>
       </c>
       <c r="C50" s="80" t="s">
-        <v>1540</v>
+        <v>205</v>
       </c>
       <c r="D50" s="80" t="s">
-        <v>1540</v>
+        <v>967</v>
       </c>
       <c r="E50" s="80" t="s">
         <v>1577</v>
@@ -46553,37 +46553,37 @@
       <c r="F50" s="80"/>
       <c r="G50" s="80"/>
       <c r="H50" s="80" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I50" s="49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J50" s="50">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K50" s="51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L50" s="52" t="s">
         <v>152</v>
       </c>
       <c r="M50" s="53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N50" s="53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O50" s="53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P50" s="53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q50" s="402" t="s">
-        <v>1552</v>
-      </c>
-      <c r="R50" s="402" t="s">
-        <v>1553</v>
+        <v>1565</v>
+      </c>
+      <c r="R50" s="54" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="51" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -46594,10 +46594,10 @@
         <v>1</v>
       </c>
       <c r="C51" s="80" t="s">
-        <v>1517</v>
+        <v>212</v>
       </c>
       <c r="D51" s="80" t="s">
-        <v>1517</v>
+        <v>1030</v>
       </c>
       <c r="E51" s="80" t="s">
         <v>1579</v>
@@ -46605,7 +46605,7 @@
       <c r="F51" s="80"/>
       <c r="G51" s="80"/>
       <c r="H51" s="80" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I51" s="49">
         <v>3</v>
@@ -46614,28 +46614,28 @@
         <v>12</v>
       </c>
       <c r="K51" s="51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L51" s="52" t="s">
         <v>152</v>
       </c>
       <c r="M51" s="53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N51" s="53">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O51" s="53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P51" s="53">
         <v>2</v>
       </c>
       <c r="Q51" s="54" t="s">
-        <v>1523</v>
+        <v>1031</v>
       </c>
       <c r="R51" s="54" t="s">
-        <v>1524</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="52" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -46646,10 +46646,10 @@
         <v>2</v>
       </c>
       <c r="C52" s="80" t="s">
-        <v>216</v>
+        <v>1517</v>
       </c>
       <c r="D52" s="80" t="s">
-        <v>216</v>
+        <v>1517</v>
       </c>
       <c r="E52" s="80" t="s">
         <v>1579</v>
@@ -46657,13 +46657,13 @@
       <c r="F52" s="80"/>
       <c r="G52" s="80"/>
       <c r="H52" s="80" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I52" s="49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J52" s="50">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K52" s="51">
         <v>5</v>
@@ -46672,22 +46672,22 @@
         <v>152</v>
       </c>
       <c r="M52" s="53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N52" s="53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O52" s="53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P52" s="53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q52" s="54" t="s">
-        <v>991</v>
+        <v>1523</v>
       </c>
       <c r="R52" s="54" t="s">
-        <v>992</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="53" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -46750,10 +46750,10 @@
         <v>4</v>
       </c>
       <c r="C54" s="80" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D54" s="80" t="s">
-        <v>1030</v>
+        <v>216</v>
       </c>
       <c r="E54" s="80" t="s">
         <v>1579</v>
@@ -46761,37 +46761,37 @@
       <c r="F54" s="80"/>
       <c r="G54" s="80"/>
       <c r="H54" s="80" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I54" s="49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J54" s="50">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K54" s="51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L54" s="52" t="s">
         <v>152</v>
       </c>
       <c r="M54" s="53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N54" s="53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O54" s="53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P54" s="53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q54" s="54" t="s">
-        <v>1031</v>
+        <v>991</v>
       </c>
       <c r="R54" s="54" t="s">
-        <v>1032</v>
+        <v>992</v>
       </c>
     </row>
     <row r="55" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -46840,10 +46840,10 @@
         <v>2</v>
       </c>
       <c r="Q55" s="54" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="R55" s="54" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="56" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -46892,10 +46892,10 @@
         <v>2</v>
       </c>
       <c r="Q56" s="54" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="R56" s="54" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -46947,7 +46947,7 @@
         <v>1527</v>
       </c>
       <c r="R57" s="54" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="58" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -46996,10 +46996,10 @@
         <v>5</v>
       </c>
       <c r="Q58" s="54" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="R58" s="54" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="59" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -47048,7 +47048,7 @@
         <v>2</v>
       </c>
       <c r="Q59" s="54" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="R59" s="54" t="s">
         <v>985</v>
@@ -47100,10 +47100,10 @@
         <v>2</v>
       </c>
       <c r="Q60" s="54" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="R60" s="54" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="61" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -47152,7 +47152,7 @@
         <v>3</v>
       </c>
       <c r="Q61" s="54" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="R61" s="54" t="s">
         <v>1532</v>
@@ -47204,10 +47204,10 @@
         <v>5</v>
       </c>
       <c r="Q62" s="54" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="R62" s="54" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="63" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -47256,10 +47256,10 @@
         <v>3</v>
       </c>
       <c r="Q63" s="54" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="R63" s="54" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="64" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -47308,10 +47308,10 @@
         <v>2</v>
       </c>
       <c r="Q64" s="54" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="R64" s="54" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="65" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -47322,7 +47322,7 @@
         <v>3</v>
       </c>
       <c r="C65" s="80" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="D65" s="80" t="s">
         <v>1557</v>
@@ -47360,10 +47360,10 @@
         <v>4</v>
       </c>
       <c r="Q65" s="54" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="R65" s="54" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="66" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -47415,7 +47415,7 @@
         <v>960</v>
       </c>
       <c r="R66" s="54" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="67" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -47482,10 +47482,10 @@
         <v>2</v>
       </c>
       <c r="C68" s="80" t="s">
-        <v>377</v>
+        <v>565</v>
       </c>
       <c r="D68" s="80" t="s">
-        <v>1014</v>
+        <v>565</v>
       </c>
       <c r="E68" s="80" t="s">
         <v>649</v>
@@ -47503,19 +47503,19 @@
         <v>4</v>
       </c>
       <c r="J68" s="50">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K68" s="51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L68" s="52" t="s">
         <v>152</v>
       </c>
       <c r="M68" s="53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N68" s="53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O68" s="53">
         <v>4</v>
@@ -47524,10 +47524,10 @@
         <v>2</v>
       </c>
       <c r="Q68" s="54" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="R68" s="54" t="s">
-        <v>903</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="69" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -47590,18 +47590,22 @@
         <v>4</v>
       </c>
       <c r="C70" s="80" t="s">
-        <v>193</v>
+        <v>567</v>
       </c>
       <c r="D70" s="80" t="s">
-        <v>998</v>
+        <v>1024</v>
       </c>
       <c r="E70" s="80" t="s">
         <v>649</v>
       </c>
-      <c r="F70" s="80"/>
-      <c r="G70" s="80"/>
+      <c r="F70" s="80" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G70" s="80">
+        <v>1</v>
+      </c>
       <c r="H70" s="80" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I70" s="49">
         <v>4</v>
@@ -47610,28 +47614,28 @@
         <v>10</v>
       </c>
       <c r="K70" s="51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L70" s="52" t="s">
         <v>152</v>
       </c>
       <c r="M70" s="53">
+        <v>4</v>
+      </c>
+      <c r="N70" s="53">
+        <v>2</v>
+      </c>
+      <c r="O70" s="53">
         <v>3</v>
       </c>
-      <c r="N70" s="53">
-        <v>2</v>
-      </c>
-      <c r="O70" s="53">
-        <v>2</v>
-      </c>
       <c r="P70" s="53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q70" s="54" t="s">
-        <v>999</v>
+        <v>1025</v>
       </c>
       <c r="R70" s="54" t="s">
-        <v>1000</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="71" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -47642,10 +47646,10 @@
         <v>5</v>
       </c>
       <c r="C71" s="80" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D71" s="80" t="s">
-        <v>194</v>
+        <v>998</v>
       </c>
       <c r="E71" s="80" t="s">
         <v>649</v>
@@ -47653,16 +47657,16 @@
       <c r="F71" s="80"/>
       <c r="G71" s="80"/>
       <c r="H71" s="80" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I71" s="49">
         <v>4</v>
       </c>
       <c r="J71" s="50">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K71" s="51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L71" s="52" t="s">
         <v>152</v>
@@ -47674,16 +47678,16 @@
         <v>2</v>
       </c>
       <c r="O71" s="53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P71" s="53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q71" s="54" t="s">
-        <v>1033</v>
+        <v>999</v>
       </c>
       <c r="R71" s="54" t="s">
-        <v>1034</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="72" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -47694,10 +47698,10 @@
         <v>6</v>
       </c>
       <c r="C72" s="80" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D72" s="80" t="s">
-        <v>1018</v>
+        <v>194</v>
       </c>
       <c r="E72" s="80" t="s">
         <v>649</v>
@@ -47705,37 +47709,37 @@
       <c r="F72" s="80"/>
       <c r="G72" s="80"/>
       <c r="H72" s="80" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I72" s="49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J72" s="50">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K72" s="51">
         <v>4</v>
       </c>
       <c r="L72" s="52" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="M72" s="53">
         <v>3</v>
       </c>
       <c r="N72" s="53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O72" s="53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P72" s="53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q72" s="54" t="s">
-        <v>1019</v>
+        <v>1033</v>
       </c>
       <c r="R72" s="54" t="s">
-        <v>1020</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="73" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -47746,15 +47750,17 @@
         <v>7</v>
       </c>
       <c r="C73" s="80" t="s">
-        <v>196</v>
+        <v>377</v>
       </c>
       <c r="D73" s="80" t="s">
-        <v>196</v>
+        <v>1014</v>
       </c>
       <c r="E73" s="80" t="s">
         <v>649</v>
       </c>
-      <c r="F73" s="80"/>
+      <c r="F73" s="80" t="s">
+        <v>1467</v>
+      </c>
       <c r="G73" s="80">
         <v>1</v>
       </c>
@@ -47762,13 +47768,13 @@
         <v>16</v>
       </c>
       <c r="I73" s="49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J73" s="50">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K73" s="51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L73" s="52" t="s">
         <v>152</v>
@@ -47777,19 +47783,19 @@
         <v>2</v>
       </c>
       <c r="N73" s="53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O73" s="53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P73" s="53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q73" s="54" t="s">
-        <v>1452</v>
+        <v>1015</v>
       </c>
       <c r="R73" s="54" t="s">
-        <v>1013</v>
+        <v>903</v>
       </c>
     </row>
     <row r="74" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -47800,10 +47806,10 @@
         <v>8</v>
       </c>
       <c r="C74" s="80" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D74" s="80" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="E74" s="80" t="s">
         <v>649</v>
@@ -47814,34 +47820,34 @@
         <v>16</v>
       </c>
       <c r="I74" s="49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J74" s="50">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K74" s="51">
+        <v>4</v>
+      </c>
+      <c r="L74" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="M74" s="53">
         <v>3</v>
       </c>
-      <c r="L74" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="M74" s="53">
-        <v>4</v>
-      </c>
       <c r="N74" s="53">
         <v>1</v>
       </c>
       <c r="O74" s="53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P74" s="53">
         <v>2</v>
       </c>
       <c r="Q74" s="54" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="R74" s="54" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="75" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -47852,10 +47858,10 @@
         <v>9</v>
       </c>
       <c r="C75" s="80" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D75" s="80" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E75" s="80" t="s">
         <v>649</v>
@@ -47865,37 +47871,37 @@
         <v>1</v>
       </c>
       <c r="H75" s="80" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I75" s="49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J75" s="50">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K75" s="51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L75" s="52" t="s">
         <v>152</v>
       </c>
       <c r="M75" s="53">
+        <v>2</v>
+      </c>
+      <c r="N75" s="53">
+        <v>2</v>
+      </c>
+      <c r="O75" s="53">
         <v>3</v>
       </c>
-      <c r="N75" s="53">
-        <v>5</v>
-      </c>
-      <c r="O75" s="53">
-        <v>1</v>
-      </c>
       <c r="P75" s="53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q75" s="54" t="s">
-        <v>965</v>
+        <v>1452</v>
       </c>
       <c r="R75" s="54" t="s">
-        <v>966</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="76" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -47906,10 +47912,10 @@
         <v>10</v>
       </c>
       <c r="C76" s="80" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D76" s="80" t="s">
-        <v>973</v>
+        <v>1021</v>
       </c>
       <c r="E76" s="80" t="s">
         <v>649</v>
@@ -47917,37 +47923,37 @@
       <c r="F76" s="80"/>
       <c r="G76" s="80"/>
       <c r="H76" s="80" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I76" s="49">
         <v>4</v>
       </c>
       <c r="J76" s="50">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K76" s="51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L76" s="52" t="s">
         <v>152</v>
       </c>
       <c r="M76" s="53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N76" s="53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O76" s="53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P76" s="53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q76" s="54" t="s">
-        <v>974</v>
+        <v>1022</v>
       </c>
       <c r="R76" s="54" t="s">
-        <v>975</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="77" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -47958,10 +47964,10 @@
         <v>11</v>
       </c>
       <c r="C77" s="80" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D77" s="80" t="s">
-        <v>993</v>
+        <v>198</v>
       </c>
       <c r="E77" s="80" t="s">
         <v>649</v>
@@ -47971,16 +47977,16 @@
         <v>1</v>
       </c>
       <c r="H77" s="80" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I77" s="49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J77" s="50">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K77" s="51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L77" s="52" t="s">
         <v>152</v>
@@ -47989,19 +47995,19 @@
         <v>3</v>
       </c>
       <c r="N77" s="53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O77" s="53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P77" s="53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q77" s="54" t="s">
-        <v>994</v>
+        <v>965</v>
       </c>
       <c r="R77" s="54" t="s">
-        <v>995</v>
+        <v>966</v>
       </c>
     </row>
     <row r="78" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -48012,10 +48018,10 @@
         <v>12</v>
       </c>
       <c r="C78" s="80" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D78" s="80" t="s">
-        <v>1005</v>
+        <v>973</v>
       </c>
       <c r="E78" s="80" t="s">
         <v>649</v>
@@ -48023,7 +48029,7 @@
       <c r="F78" s="80"/>
       <c r="G78" s="80"/>
       <c r="H78" s="80" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I78" s="49">
         <v>4</v>
@@ -48032,28 +48038,28 @@
         <v>10</v>
       </c>
       <c r="K78" s="51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L78" s="52" t="s">
         <v>152</v>
       </c>
       <c r="M78" s="53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N78" s="53">
         <v>3</v>
       </c>
       <c r="O78" s="53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P78" s="53">
         <v>3</v>
       </c>
       <c r="Q78" s="54" t="s">
-        <v>1006</v>
+        <v>974</v>
       </c>
       <c r="R78" s="54" t="s">
-        <v>1007</v>
+        <v>975</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -48064,28 +48070,26 @@
         <v>13</v>
       </c>
       <c r="C79" s="80" t="s">
-        <v>565</v>
+        <v>200</v>
       </c>
       <c r="D79" s="80" t="s">
-        <v>565</v>
+        <v>993</v>
       </c>
       <c r="E79" s="80" t="s">
         <v>649</v>
       </c>
-      <c r="F79" s="80" t="s">
-        <v>1467</v>
-      </c>
+      <c r="F79" s="80"/>
       <c r="G79" s="80">
         <v>1</v>
       </c>
       <c r="H79" s="80" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I79" s="49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J79" s="50">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K79" s="51">
         <v>5</v>
@@ -48094,22 +48098,22 @@
         <v>152</v>
       </c>
       <c r="M79" s="53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N79" s="53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O79" s="53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P79" s="53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q79" s="54" t="s">
-        <v>1011</v>
+        <v>994</v>
       </c>
       <c r="R79" s="54" t="s">
-        <v>1012</v>
+        <v>995</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -48120,10 +48124,10 @@
         <v>14</v>
       </c>
       <c r="C80" s="80" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D80" s="80" t="s">
-        <v>202</v>
+        <v>1005</v>
       </c>
       <c r="E80" s="80" t="s">
         <v>649</v>
@@ -48134,34 +48138,34 @@
         <v>18</v>
       </c>
       <c r="I80" s="49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J80" s="50">
         <v>10</v>
       </c>
       <c r="K80" s="51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L80" s="52" t="s">
         <v>152</v>
       </c>
       <c r="M80" s="53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N80" s="53">
         <v>3</v>
       </c>
       <c r="O80" s="53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P80" s="53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q80" s="54" t="s">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="R80" s="54" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="81" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -48172,10 +48176,10 @@
         <v>15</v>
       </c>
       <c r="C81" s="80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D81" s="80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E81" s="80" t="s">
         <v>649</v>
@@ -48183,37 +48187,37 @@
       <c r="F81" s="80"/>
       <c r="G81" s="80"/>
       <c r="H81" s="80" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I81" s="49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J81" s="50">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K81" s="51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L81" s="52" t="s">
         <v>152</v>
       </c>
       <c r="M81" s="53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N81" s="53">
         <v>3</v>
       </c>
       <c r="O81" s="53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P81" s="53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q81" s="54" t="s">
-        <v>960</v>
+        <v>1001</v>
       </c>
       <c r="R81" s="54" t="s">
-        <v>961</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="82" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -48224,31 +48228,27 @@
         <v>16</v>
       </c>
       <c r="C82" s="80" t="s">
-        <v>567</v>
+        <v>203</v>
       </c>
       <c r="D82" s="80" t="s">
-        <v>1024</v>
+        <v>203</v>
       </c>
       <c r="E82" s="80" t="s">
         <v>649</v>
       </c>
-      <c r="F82" s="80" t="s">
-        <v>1467</v>
-      </c>
-      <c r="G82" s="80">
-        <v>1</v>
-      </c>
+      <c r="F82" s="80"/>
+      <c r="G82" s="80"/>
       <c r="H82" s="80" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I82" s="49">
         <v>4</v>
       </c>
       <c r="J82" s="50">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K82" s="51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L82" s="52" t="s">
         <v>152</v>
@@ -48257,19 +48257,19 @@
         <v>4</v>
       </c>
       <c r="N82" s="53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O82" s="53">
         <v>3</v>
       </c>
       <c r="P82" s="53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q82" s="54" t="s">
-        <v>1025</v>
+        <v>960</v>
       </c>
       <c r="R82" s="54" t="s">
-        <v>1026</v>
+        <v>961</v>
       </c>
     </row>
     <row r="83" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -48440,7 +48440,7 @@
         <v>20</v>
       </c>
       <c r="C86" s="80" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="D86" s="80" t="s">
         <v>1003</v>
@@ -48656,10 +48656,10 @@
         <v>4</v>
       </c>
       <c r="C90" s="80" t="s">
-        <v>376</v>
+        <v>566</v>
       </c>
       <c r="D90" s="80" t="s">
-        <v>1291</v>
+        <v>1009</v>
       </c>
       <c r="E90" s="80" t="s">
         <v>650</v>
@@ -48667,37 +48667,37 @@
       <c r="F90" s="80"/>
       <c r="G90" s="80"/>
       <c r="H90" s="80" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I90" s="49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J90" s="50">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K90" s="51">
         <v>4</v>
       </c>
       <c r="L90" s="52" t="s">
-        <v>229</v>
+        <v>152</v>
       </c>
       <c r="M90" s="53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N90" s="53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O90" s="53">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P90" s="53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q90" s="54" t="s">
-        <v>976</v>
+        <v>1453</v>
       </c>
       <c r="R90" s="54" t="s">
-        <v>977</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="91" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -48708,10 +48708,10 @@
         <v>5</v>
       </c>
       <c r="C91" s="80" t="s">
-        <v>566</v>
+        <v>376</v>
       </c>
       <c r="D91" s="80" t="s">
-        <v>1009</v>
+        <v>1291</v>
       </c>
       <c r="E91" s="80" t="s">
         <v>650</v>
@@ -48719,37 +48719,37 @@
       <c r="F91" s="80"/>
       <c r="G91" s="80"/>
       <c r="H91" s="80" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I91" s="49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J91" s="50">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K91" s="51">
         <v>4</v>
       </c>
       <c r="L91" s="52" t="s">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="M91" s="53">
+        <v>2</v>
+      </c>
+      <c r="N91" s="53">
+        <v>4</v>
+      </c>
+      <c r="O91" s="53">
+        <v>2</v>
+      </c>
+      <c r="P91" s="53">
         <v>3</v>
       </c>
-      <c r="N91" s="53">
-        <v>1</v>
-      </c>
-      <c r="O91" s="53">
-        <v>5</v>
-      </c>
-      <c r="P91" s="53">
-        <v>2</v>
-      </c>
       <c r="Q91" s="54" t="s">
-        <v>1453</v>
+        <v>976</v>
       </c>
       <c r="R91" s="54" t="s">
-        <v>1010</v>
+        <v>977</v>
       </c>
     </row>
     <row r="92" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -49126,7 +49126,7 @@
         <v>1</v>
       </c>
       <c r="C99" s="80" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="D99" s="80" t="s">
         <v>1535</v>
@@ -49178,7 +49178,7 @@
         <v>2</v>
       </c>
       <c r="C100" s="80" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="D100" s="80" t="s">
         <v>1536</v>
@@ -49230,7 +49230,7 @@
         <v>3</v>
       </c>
       <c r="C101" s="80" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D101" s="80" t="s">
         <v>1537</v>
@@ -49282,7 +49282,7 @@
         <v>4</v>
       </c>
       <c r="C102" s="80" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="D102" s="80" t="s">
         <v>1538</v>
@@ -49334,15 +49334,17 @@
         <v>5</v>
       </c>
       <c r="C103" s="80" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D103" s="80" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="E103" s="80" t="s">
         <v>1541</v>
       </c>
-      <c r="F103" s="80"/>
+      <c r="F103" s="80" t="s">
+        <v>1467</v>
+      </c>
       <c r="G103" s="80"/>
       <c r="H103" s="80" t="s">
         <v>16</v>
@@ -49354,7 +49356,7 @@
         <v>8</v>
       </c>
       <c r="K103" s="51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L103" s="52" t="s">
         <v>152</v>
@@ -49363,19 +49365,19 @@
         <v>3</v>
       </c>
       <c r="N103" s="53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O103" s="53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P103" s="53">
         <v>3</v>
       </c>
       <c r="Q103" s="54" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="R103" s="54" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="104" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -49386,17 +49388,15 @@
         <v>6</v>
       </c>
       <c r="C104" s="80" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D104" s="80" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="E104" s="80" t="s">
         <v>1541</v>
       </c>
-      <c r="F104" s="80" t="s">
-        <v>1467</v>
-      </c>
+      <c r="F104" s="80"/>
       <c r="G104" s="80"/>
       <c r="H104" s="80" t="s">
         <v>16</v>
@@ -49408,7 +49408,7 @@
         <v>8</v>
       </c>
       <c r="K104" s="51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L104" s="52" t="s">
         <v>152</v>
@@ -49417,19 +49417,19 @@
         <v>3</v>
       </c>
       <c r="N104" s="53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O104" s="53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P104" s="53">
         <v>3</v>
       </c>
       <c r="Q104" s="54" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="R104" s="54" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="105" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -49440,7 +49440,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="80" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="D105" s="80" t="s">
         <v>1554</v>
@@ -49488,10 +49488,10 @@
         <v>2</v>
       </c>
       <c r="C106" s="80" t="s">
-        <v>1664</v>
+        <v>1659</v>
       </c>
       <c r="D106" s="80" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="E106" s="80" t="s">
         <v>1555</v>
@@ -49499,10 +49499,10 @@
       <c r="F106" s="80"/>
       <c r="G106" s="80"/>
       <c r="H106" s="80" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I106" s="49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J106" s="50">
         <v>10</v>
@@ -49517,20 +49517,16 @@
         <v>2</v>
       </c>
       <c r="N106" s="53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O106" s="53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P106" s="53">
         <v>4</v>
       </c>
-      <c r="Q106" s="54" t="s">
-        <v>1559</v>
-      </c>
-      <c r="R106" s="54" t="s">
-        <v>1560</v>
-      </c>
+      <c r="Q106" s="54"/>
+      <c r="R106" s="54"/>
     </row>
     <row r="107" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="412">
@@ -49540,10 +49536,10 @@
         <v>3</v>
       </c>
       <c r="C107" s="80" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="D107" s="80" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="E107" s="80" t="s">
         <v>1555</v>
@@ -49551,16 +49547,16 @@
       <c r="F107" s="80"/>
       <c r="G107" s="80"/>
       <c r="H107" s="80" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I107" s="49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J107" s="50">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K107" s="51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L107" s="52" t="s">
         <v>152</v>
@@ -49569,10 +49565,10 @@
         <v>2</v>
       </c>
       <c r="N107" s="53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O107" s="53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P107" s="53">
         <v>4</v>
@@ -49588,10 +49584,10 @@
         <v>4</v>
       </c>
       <c r="C108" s="80" t="s">
-        <v>1659</v>
+        <v>1662</v>
       </c>
       <c r="D108" s="80" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="E108" s="80" t="s">
         <v>1555</v>
@@ -49599,16 +49595,16 @@
       <c r="F108" s="80"/>
       <c r="G108" s="80"/>
       <c r="H108" s="80" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I108" s="49">
         <v>4</v>
       </c>
       <c r="J108" s="50">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K108" s="51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L108" s="52" t="s">
         <v>152</v>
@@ -49617,16 +49613,20 @@
         <v>2</v>
       </c>
       <c r="N108" s="53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O108" s="53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P108" s="53">
         <v>4</v>
       </c>
-      <c r="Q108" s="54"/>
-      <c r="R108" s="54"/>
+      <c r="Q108" s="54" t="s">
+        <v>1559</v>
+      </c>
+      <c r="R108" s="54" t="s">
+        <v>1560</v>
+      </c>
     </row>
     <row r="109" spans="1:18" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="15">
@@ -50336,8 +50336,16 @@
     </row>
   </sheetData>
   <autoFilter ref="A24:R114"/>
+  <sortState ref="C109:R114">
+    <sortCondition ref="C109"/>
+  </sortState>
   <dataConsolidate/>
   <mergeCells count="21">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E1:F1"/>
@@ -50354,11 +50362,6 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <conditionalFormatting sqref="C25:D25 F25:H25 C47:H47">
     <cfRule type="expression" dxfId="151" priority="149">
@@ -57597,7 +57600,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58375,11 +58378,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="I92" sqref="I92"/>
+      <selection pane="bottomRight" activeCell="I92" sqref="I3:I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>

--- a/descent/src/descent.xlsx
+++ b/descent/src/descent.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="120" yWindow="120" windowWidth="28515" windowHeight="13095" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="13095" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Contenu" sheetId="8" r:id="rId1"/>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6856" uniqueCount="1680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6857" uniqueCount="1684">
   <si>
     <t>Descent V2</t>
   </si>
@@ -5460,6 +5460,18 @@
   </si>
   <si>
     <t>Chaque fois que vous réussissez à vaincre un monstre, vous récupérez 1 ∏.</t>
+  </si>
+  <si>
+    <t>Goblin Archer</t>
+  </si>
+  <si>
+    <t>Flesh Moulders</t>
+  </si>
+  <si>
+    <t>Shadow Dragon</t>
+  </si>
+  <si>
+    <t>Hybrid Sentinel</t>
   </si>
 </sst>
 </file>
@@ -7494,13 +7506,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -13109,13 +13121,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="C24:C25"/>
@@ -13132,6 +13137,13 @@
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13146,9 +13158,9 @@
   </sheetPr>
   <dimension ref="A1:V94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K1" sqref="K1:K1048576"/>
+      <selection pane="topRight" activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18188,10 +18200,10 @@
   <dimension ref="A1:AT205"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E194" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K202" sqref="K202"/>
+      <selection pane="bottomRight" activeCell="A102" sqref="A102:Z105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18237,11 +18249,11 @@
       <c r="C1" s="95"/>
       <c r="D1" s="16"/>
       <c r="E1" s="32"/>
-      <c r="I1" s="432" t="s">
+      <c r="I1" s="431" t="s">
         <v>308</v>
       </c>
-      <c r="J1" s="432"/>
-      <c r="K1" s="432"/>
+      <c r="J1" s="431"/>
+      <c r="K1" s="431"/>
       <c r="M1" s="29" t="s">
         <v>221</v>
       </c>
@@ -18256,18 +18268,18 @@
       <c r="R1" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="S1" s="431" t="s">
+      <c r="S1" s="430" t="s">
         <v>261</v>
       </c>
-      <c r="T1" s="431"/>
-      <c r="U1" s="431" t="s">
+      <c r="T1" s="430"/>
+      <c r="U1" s="430" t="s">
         <v>262</v>
       </c>
-      <c r="V1" s="431"/>
-      <c r="W1" s="431" t="s">
+      <c r="V1" s="430"/>
+      <c r="W1" s="430" t="s">
         <v>263</v>
       </c>
-      <c r="X1" s="431"/>
+      <c r="X1" s="430"/>
       <c r="AA1" s="63"/>
       <c r="AB1" s="115"/>
       <c r="AC1" s="115"/>
@@ -28652,13 +28664,13 @@
       </c>
     </row>
     <row r="102" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="430" t="s">
+      <c r="A102" s="432" t="s">
         <v>1301</v>
       </c>
       <c r="B102" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C102" s="430" t="s">
+      <c r="C102" s="432" t="s">
         <v>1305</v>
       </c>
       <c r="D102" s="414" t="s">
@@ -28761,11 +28773,11 @@
       </c>
     </row>
     <row r="103" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="430"/>
+      <c r="A103" s="432"/>
       <c r="B103" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C103" s="430"/>
+      <c r="C103" s="432"/>
       <c r="D103" s="414"/>
       <c r="E103" s="417"/>
       <c r="F103" s="417"/>
@@ -28863,11 +28875,11 @@
       </c>
     </row>
     <row r="104" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="430"/>
+      <c r="A104" s="432"/>
       <c r="B104" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C104" s="430"/>
+      <c r="C104" s="432"/>
       <c r="D104" s="414"/>
       <c r="E104" s="417"/>
       <c r="F104" s="417" t="s">
@@ -28964,11 +28976,11 @@
       </c>
     </row>
     <row r="105" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="430"/>
+      <c r="A105" s="432"/>
       <c r="B105" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C105" s="430"/>
+      <c r="C105" s="432"/>
       <c r="D105" s="414"/>
       <c r="E105" s="417"/>
       <c r="F105" s="417"/>
@@ -29066,20 +29078,20 @@
       </c>
     </row>
     <row r="106" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="430" t="s">
+      <c r="A106" s="432" t="s">
         <v>1301</v>
       </c>
       <c r="B106" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C106" s="430" t="s">
+      <c r="C106" s="432" t="s">
         <v>1305</v>
       </c>
       <c r="D106" s="414" t="s">
         <v>394</v>
       </c>
       <c r="E106" s="417" t="s">
-        <v>394</v>
+        <v>1680</v>
       </c>
       <c r="F106" s="417" t="s">
         <v>220</v>
@@ -29183,11 +29195,11 @@
       </c>
     </row>
     <row r="107" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="430"/>
+      <c r="A107" s="432"/>
       <c r="B107" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C107" s="430"/>
+      <c r="C107" s="432"/>
       <c r="D107" s="414"/>
       <c r="E107" s="417"/>
       <c r="F107" s="417"/>
@@ -29290,11 +29302,11 @@
       </c>
     </row>
     <row r="108" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="430"/>
+      <c r="A108" s="432"/>
       <c r="B108" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C108" s="430"/>
+      <c r="C108" s="432"/>
       <c r="D108" s="414"/>
       <c r="E108" s="417"/>
       <c r="F108" s="417" t="s">
@@ -29399,11 +29411,11 @@
       </c>
     </row>
     <row r="109" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="430"/>
+      <c r="A109" s="432"/>
       <c r="B109" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C109" s="430"/>
+      <c r="C109" s="432"/>
       <c r="D109" s="414"/>
       <c r="E109" s="417"/>
       <c r="F109" s="417"/>
@@ -29506,13 +29518,13 @@
       </c>
     </row>
     <row r="110" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="430" t="s">
+      <c r="A110" s="432" t="s">
         <v>1301</v>
       </c>
       <c r="B110" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C110" s="430" t="s">
+      <c r="C110" s="432" t="s">
         <v>1305</v>
       </c>
       <c r="D110" s="414" t="s">
@@ -29612,11 +29624,11 @@
       </c>
     </row>
     <row r="111" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="430"/>
+      <c r="A111" s="432"/>
       <c r="B111" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C111" s="430"/>
+      <c r="C111" s="432"/>
       <c r="D111" s="414"/>
       <c r="E111" s="417"/>
       <c r="F111" s="417"/>
@@ -29711,11 +29723,11 @@
       </c>
     </row>
     <row r="112" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="430"/>
+      <c r="A112" s="432"/>
       <c r="B112" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C112" s="430"/>
+      <c r="C112" s="432"/>
       <c r="D112" s="414"/>
       <c r="E112" s="417"/>
       <c r="F112" s="417" t="s">
@@ -29809,11 +29821,11 @@
       </c>
     </row>
     <row r="113" spans="1:46" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A113" s="430"/>
+      <c r="A113" s="432"/>
       <c r="B113" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C113" s="430"/>
+      <c r="C113" s="432"/>
       <c r="D113" s="414"/>
       <c r="E113" s="417"/>
       <c r="F113" s="417"/>
@@ -29908,20 +29920,20 @@
       </c>
     </row>
     <row r="114" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="430" t="s">
+      <c r="A114" s="432" t="s">
         <v>1300</v>
       </c>
       <c r="B114" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C114" s="430" t="s">
+      <c r="C114" s="432" t="s">
         <v>1305</v>
       </c>
       <c r="D114" s="414" t="s">
         <v>395</v>
       </c>
       <c r="E114" s="417" t="s">
-        <v>395</v>
+        <v>1681</v>
       </c>
       <c r="F114" s="417" t="s">
         <v>220</v>
@@ -30020,11 +30032,11 @@
       </c>
     </row>
     <row r="115" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="430"/>
+      <c r="A115" s="432"/>
       <c r="B115" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C115" s="430"/>
+      <c r="C115" s="432"/>
       <c r="D115" s="414"/>
       <c r="E115" s="417"/>
       <c r="F115" s="417"/>
@@ -30125,11 +30137,11 @@
       </c>
     </row>
     <row r="116" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="430"/>
+      <c r="A116" s="432"/>
       <c r="B116" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C116" s="430"/>
+      <c r="C116" s="432"/>
       <c r="D116" s="414"/>
       <c r="E116" s="417"/>
       <c r="F116" s="417" t="s">
@@ -30229,11 +30241,11 @@
       </c>
     </row>
     <row r="117" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="430"/>
+      <c r="A117" s="432"/>
       <c r="B117" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C117" s="430"/>
+      <c r="C117" s="432"/>
       <c r="D117" s="414"/>
       <c r="E117" s="417"/>
       <c r="F117" s="417"/>
@@ -30334,13 +30346,13 @@
       </c>
     </row>
     <row r="118" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="430" t="s">
+      <c r="A118" s="432" t="s">
         <v>1300</v>
       </c>
       <c r="B118" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C118" s="430" t="s">
+      <c r="C118" s="432" t="s">
         <v>1307</v>
       </c>
       <c r="D118" s="414" t="s">
@@ -30443,11 +30455,11 @@
       </c>
     </row>
     <row r="119" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="430"/>
+      <c r="A119" s="432"/>
       <c r="B119" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C119" s="430"/>
+      <c r="C119" s="432"/>
       <c r="D119" s="414"/>
       <c r="E119" s="417"/>
       <c r="F119" s="417"/>
@@ -30545,11 +30557,11 @@
       </c>
     </row>
     <row r="120" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="430"/>
+      <c r="A120" s="432"/>
       <c r="B120" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C120" s="430"/>
+      <c r="C120" s="432"/>
       <c r="D120" s="414"/>
       <c r="E120" s="417"/>
       <c r="F120" s="417" t="s">
@@ -30646,11 +30658,11 @@
       </c>
     </row>
     <row r="121" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="430"/>
+      <c r="A121" s="432"/>
       <c r="B121" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C121" s="430"/>
+      <c r="C121" s="432"/>
       <c r="D121" s="414"/>
       <c r="E121" s="417"/>
       <c r="F121" s="417"/>
@@ -30748,13 +30760,13 @@
       </c>
     </row>
     <row r="122" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="430" t="s">
+      <c r="A122" s="432" t="s">
         <v>1302</v>
       </c>
       <c r="B122" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C122" s="430" t="s">
+      <c r="C122" s="432" t="s">
         <v>1306</v>
       </c>
       <c r="D122" s="414" t="s">
@@ -30857,11 +30869,11 @@
       </c>
     </row>
     <row r="123" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="430"/>
+      <c r="A123" s="432"/>
       <c r="B123" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C123" s="430"/>
+      <c r="C123" s="432"/>
       <c r="D123" s="414"/>
       <c r="E123" s="417"/>
       <c r="F123" s="417"/>
@@ -30962,11 +30974,11 @@
       </c>
     </row>
     <row r="124" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="430"/>
+      <c r="A124" s="432"/>
       <c r="B124" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C124" s="430"/>
+      <c r="C124" s="432"/>
       <c r="D124" s="414"/>
       <c r="E124" s="417"/>
       <c r="F124" s="417" t="s">
@@ -31063,11 +31075,11 @@
       </c>
     </row>
     <row r="125" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="430"/>
+      <c r="A125" s="432"/>
       <c r="B125" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C125" s="430"/>
+      <c r="C125" s="432"/>
       <c r="D125" s="414"/>
       <c r="E125" s="417"/>
       <c r="F125" s="417"/>
@@ -31165,13 +31177,13 @@
       </c>
     </row>
     <row r="126" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="430" t="s">
+      <c r="A126" s="432" t="s">
         <v>1302</v>
       </c>
       <c r="B126" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C126" s="430" t="s">
+      <c r="C126" s="432" t="s">
         <v>1306</v>
       </c>
       <c r="D126" s="414" t="s">
@@ -31276,11 +31288,11 @@
       </c>
     </row>
     <row r="127" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="430"/>
+      <c r="A127" s="432"/>
       <c r="B127" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C127" s="430"/>
+      <c r="C127" s="432"/>
       <c r="D127" s="414"/>
       <c r="E127" s="417"/>
       <c r="F127" s="417"/>
@@ -31377,11 +31389,11 @@
       </c>
     </row>
     <row r="128" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="430"/>
+      <c r="A128" s="432"/>
       <c r="B128" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C128" s="430"/>
+      <c r="C128" s="432"/>
       <c r="D128" s="414"/>
       <c r="E128" s="417"/>
       <c r="F128" s="417" t="s">
@@ -31477,11 +31489,11 @@
       </c>
     </row>
     <row r="129" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="430"/>
+      <c r="A129" s="432"/>
       <c r="B129" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C129" s="430"/>
+      <c r="C129" s="432"/>
       <c r="D129" s="414"/>
       <c r="E129" s="417"/>
       <c r="F129" s="417"/>
@@ -31575,13 +31587,13 @@
       </c>
     </row>
     <row r="130" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="430" t="s">
+      <c r="A130" s="432" t="s">
         <v>1302</v>
       </c>
       <c r="B130" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C130" s="430" t="s">
+      <c r="C130" s="432" t="s">
         <v>1306</v>
       </c>
       <c r="D130" s="414" t="s">
@@ -31687,11 +31699,11 @@
       </c>
     </row>
     <row r="131" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="430"/>
+      <c r="A131" s="432"/>
       <c r="B131" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C131" s="430"/>
+      <c r="C131" s="432"/>
       <c r="D131" s="414"/>
       <c r="E131" s="417"/>
       <c r="F131" s="417"/>
@@ -31789,11 +31801,11 @@
       </c>
     </row>
     <row r="132" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="430"/>
+      <c r="A132" s="432"/>
       <c r="B132" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C132" s="430"/>
+      <c r="C132" s="432"/>
       <c r="D132" s="414"/>
       <c r="E132" s="417"/>
       <c r="F132" s="417" t="s">
@@ -31890,11 +31902,11 @@
       </c>
     </row>
     <row r="133" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="430"/>
+      <c r="A133" s="432"/>
       <c r="B133" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C133" s="430"/>
+      <c r="C133" s="432"/>
       <c r="D133" s="414"/>
       <c r="E133" s="417"/>
       <c r="F133" s="417"/>
@@ -31989,20 +32001,20 @@
       </c>
     </row>
     <row r="134" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="430" t="s">
+      <c r="A134" s="432" t="s">
         <v>1302</v>
       </c>
       <c r="B134" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C134" s="430" t="s">
+      <c r="C134" s="432" t="s">
         <v>1308</v>
       </c>
       <c r="D134" s="414" t="s">
         <v>397</v>
       </c>
       <c r="E134" s="417" t="s">
-        <v>397</v>
+        <v>1682</v>
       </c>
       <c r="F134" s="417" t="s">
         <v>220</v>
@@ -32098,11 +32110,11 @@
       </c>
     </row>
     <row r="135" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="430"/>
+      <c r="A135" s="432"/>
       <c r="B135" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C135" s="430"/>
+      <c r="C135" s="432"/>
       <c r="D135" s="414"/>
       <c r="E135" s="417"/>
       <c r="F135" s="417"/>
@@ -32200,11 +32212,11 @@
       </c>
     </row>
     <row r="136" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="430"/>
+      <c r="A136" s="432"/>
       <c r="B136" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C136" s="430"/>
+      <c r="C136" s="432"/>
       <c r="D136" s="414"/>
       <c r="E136" s="417"/>
       <c r="F136" s="417" t="s">
@@ -32301,11 +32313,11 @@
       </c>
     </row>
     <row r="137" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="430"/>
+      <c r="A137" s="432"/>
       <c r="B137" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C137" s="430"/>
+      <c r="C137" s="432"/>
       <c r="D137" s="414"/>
       <c r="E137" s="417"/>
       <c r="F137" s="417"/>
@@ -32400,13 +32412,13 @@
       </c>
     </row>
     <row r="138" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="430" t="s">
+      <c r="A138" s="432" t="s">
         <v>1304</v>
       </c>
       <c r="B138" s="120" t="s">
         <v>1465</v>
       </c>
-      <c r="C138" s="430" t="s">
+      <c r="C138" s="432" t="s">
         <v>1305</v>
       </c>
       <c r="D138" s="414" t="s">
@@ -32515,11 +32527,11 @@
       </c>
     </row>
     <row r="139" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="430"/>
+      <c r="A139" s="432"/>
       <c r="B139" s="120" t="s">
         <v>1465</v>
       </c>
-      <c r="C139" s="430"/>
+      <c r="C139" s="432"/>
       <c r="D139" s="414"/>
       <c r="E139" s="417"/>
       <c r="F139" s="417"/>
@@ -32620,11 +32632,11 @@
       </c>
     </row>
     <row r="140" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="430"/>
+      <c r="A140" s="432"/>
       <c r="B140" s="120" t="s">
         <v>1465</v>
       </c>
-      <c r="C140" s="430"/>
+      <c r="C140" s="432"/>
       <c r="D140" s="414"/>
       <c r="E140" s="417"/>
       <c r="F140" s="417" t="s">
@@ -32727,11 +32739,11 @@
       </c>
     </row>
     <row r="141" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="430"/>
+      <c r="A141" s="432"/>
       <c r="B141" s="120" t="s">
         <v>1465</v>
       </c>
-      <c r="C141" s="430"/>
+      <c r="C141" s="432"/>
       <c r="D141" s="414"/>
       <c r="E141" s="417"/>
       <c r="F141" s="417"/>
@@ -32832,19 +32844,21 @@
       </c>
     </row>
     <row r="142" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="430" t="s">
+      <c r="A142" s="432" t="s">
         <v>1299</v>
       </c>
       <c r="B142" s="120" t="s">
         <v>313</v>
       </c>
-      <c r="C142" s="430" t="s">
+      <c r="C142" s="432" t="s">
         <v>1305</v>
       </c>
       <c r="D142" s="414" t="s">
         <v>443</v>
       </c>
-      <c r="E142" s="417"/>
+      <c r="E142" s="417" t="s">
+        <v>1683</v>
+      </c>
       <c r="F142" s="417" t="s">
         <v>220</v>
       </c>
@@ -32940,11 +32954,11 @@
       </c>
     </row>
     <row r="143" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="430"/>
+      <c r="A143" s="432"/>
       <c r="B143" s="120" t="s">
         <v>313</v>
       </c>
-      <c r="C143" s="430"/>
+      <c r="C143" s="432"/>
       <c r="D143" s="414"/>
       <c r="E143" s="417"/>
       <c r="F143" s="417"/>
@@ -33040,11 +33054,11 @@
       </c>
     </row>
     <row r="144" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="430"/>
+      <c r="A144" s="432"/>
       <c r="B144" s="120" t="s">
         <v>313</v>
       </c>
-      <c r="C144" s="430"/>
+      <c r="C144" s="432"/>
       <c r="D144" s="414"/>
       <c r="E144" s="417"/>
       <c r="F144" s="417" t="s">
@@ -33136,11 +33150,11 @@
       </c>
     </row>
     <row r="145" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="430"/>
+      <c r="A145" s="432"/>
       <c r="B145" s="120" t="s">
         <v>313</v>
       </c>
-      <c r="C145" s="430"/>
+      <c r="C145" s="432"/>
       <c r="D145" s="414"/>
       <c r="E145" s="417"/>
       <c r="F145" s="417"/>
@@ -39379,36 +39393,262 @@
     <filterColumn colId="22" showButton="0"/>
   </autoFilter>
   <mergeCells count="310">
-    <mergeCell ref="A178:A181"/>
-    <mergeCell ref="C178:C181"/>
-    <mergeCell ref="D178:D181"/>
-    <mergeCell ref="E178:E181"/>
-    <mergeCell ref="F178:F179"/>
-    <mergeCell ref="F180:F181"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="C170:C173"/>
-    <mergeCell ref="D170:D173"/>
-    <mergeCell ref="E170:E173"/>
-    <mergeCell ref="F170:F171"/>
-    <mergeCell ref="F172:F173"/>
-    <mergeCell ref="A174:A177"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="D174:D177"/>
-    <mergeCell ref="E174:E177"/>
-    <mergeCell ref="F174:F175"/>
-    <mergeCell ref="F176:F177"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="A198:A201"/>
+    <mergeCell ref="C198:C201"/>
+    <mergeCell ref="D198:D201"/>
+    <mergeCell ref="E198:E201"/>
+    <mergeCell ref="F198:F199"/>
+    <mergeCell ref="F200:F201"/>
+    <mergeCell ref="A202:A205"/>
+    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="D202:D205"/>
+    <mergeCell ref="E202:E205"/>
+    <mergeCell ref="F202:F203"/>
+    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="D190:D193"/>
+    <mergeCell ref="E190:E193"/>
+    <mergeCell ref="F190:F191"/>
+    <mergeCell ref="F192:F193"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="C194:C197"/>
+    <mergeCell ref="D194:D197"/>
+    <mergeCell ref="E194:E197"/>
+    <mergeCell ref="F194:F195"/>
+    <mergeCell ref="F196:F197"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="C182:C185"/>
+    <mergeCell ref="D182:D185"/>
+    <mergeCell ref="E182:E185"/>
+    <mergeCell ref="F182:F183"/>
+    <mergeCell ref="F184:F185"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="C186:C189"/>
+    <mergeCell ref="D186:D189"/>
+    <mergeCell ref="E186:E189"/>
+    <mergeCell ref="F186:F187"/>
+    <mergeCell ref="F188:F189"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="C166:C169"/>
+    <mergeCell ref="D166:D169"/>
+    <mergeCell ref="E166:E169"/>
+    <mergeCell ref="F166:F167"/>
+    <mergeCell ref="F168:F169"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="C158:C161"/>
+    <mergeCell ref="D158:D161"/>
+    <mergeCell ref="E158:E161"/>
+    <mergeCell ref="F158:F159"/>
+    <mergeCell ref="F160:F161"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="C162:C165"/>
+    <mergeCell ref="D162:D165"/>
+    <mergeCell ref="E162:E165"/>
+    <mergeCell ref="F162:F163"/>
+    <mergeCell ref="F164:F165"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="D98:D101"/>
+    <mergeCell ref="E98:E101"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="D90:D93"/>
+    <mergeCell ref="E90:E93"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="D94:D97"/>
+    <mergeCell ref="E94:E97"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="E102:E105"/>
+    <mergeCell ref="E106:E109"/>
+    <mergeCell ref="D110:D113"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="D102:D105"/>
+    <mergeCell ref="D106:D109"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="F128:F129"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="E134:E137"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="D142:D145"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="E110:E113"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="E126:E129"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="D134:D137"/>
+    <mergeCell ref="E138:E141"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="E142:E145"/>
+    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="D146:D149"/>
+    <mergeCell ref="E146:E149"/>
+    <mergeCell ref="F146:F147"/>
+    <mergeCell ref="F148:F149"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="D150:D153"/>
+    <mergeCell ref="E150:E153"/>
+    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="F152:F153"/>
     <mergeCell ref="A154:A157"/>
     <mergeCell ref="C154:C157"/>
     <mergeCell ref="D154:D157"/>
@@ -39433,262 +39673,36 @@
     <mergeCell ref="E70:E73"/>
     <mergeCell ref="F70:F71"/>
     <mergeCell ref="F72:F73"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="D146:D149"/>
-    <mergeCell ref="E146:E149"/>
-    <mergeCell ref="F146:F147"/>
-    <mergeCell ref="F148:F149"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="D150:D153"/>
-    <mergeCell ref="E150:E153"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="E134:E137"/>
-    <mergeCell ref="D138:D141"/>
-    <mergeCell ref="D142:D145"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="F144:F145"/>
-    <mergeCell ref="E110:E113"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="E118:E121"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="E126:E129"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="D134:D137"/>
-    <mergeCell ref="E138:E141"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="E142:E145"/>
-    <mergeCell ref="D126:D129"/>
-    <mergeCell ref="E130:E133"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="F128:F129"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="D102:D105"/>
-    <mergeCell ref="D106:D109"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="E102:E105"/>
-    <mergeCell ref="E106:E109"/>
-    <mergeCell ref="D110:D113"/>
-    <mergeCell ref="D114:D117"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="D98:D101"/>
-    <mergeCell ref="E98:E101"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="D90:D93"/>
-    <mergeCell ref="E90:E93"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="D94:D97"/>
-    <mergeCell ref="E94:E97"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="C166:C169"/>
-    <mergeCell ref="D166:D169"/>
-    <mergeCell ref="E166:E169"/>
-    <mergeCell ref="F166:F167"/>
-    <mergeCell ref="F168:F169"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="C158:C161"/>
-    <mergeCell ref="D158:D161"/>
-    <mergeCell ref="E158:E161"/>
-    <mergeCell ref="F158:F159"/>
-    <mergeCell ref="F160:F161"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="C162:C165"/>
-    <mergeCell ref="D162:D165"/>
-    <mergeCell ref="E162:E165"/>
-    <mergeCell ref="F162:F163"/>
-    <mergeCell ref="F164:F165"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="C182:C185"/>
-    <mergeCell ref="D182:D185"/>
-    <mergeCell ref="E182:E185"/>
-    <mergeCell ref="F182:F183"/>
-    <mergeCell ref="F184:F185"/>
-    <mergeCell ref="A186:A189"/>
-    <mergeCell ref="C186:C189"/>
-    <mergeCell ref="D186:D189"/>
-    <mergeCell ref="E186:E189"/>
-    <mergeCell ref="F186:F187"/>
-    <mergeCell ref="F188:F189"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="D190:D193"/>
-    <mergeCell ref="E190:E193"/>
-    <mergeCell ref="F190:F191"/>
-    <mergeCell ref="F192:F193"/>
-    <mergeCell ref="A194:A197"/>
-    <mergeCell ref="C194:C197"/>
-    <mergeCell ref="D194:D197"/>
-    <mergeCell ref="E194:E197"/>
-    <mergeCell ref="F194:F195"/>
-    <mergeCell ref="F196:F197"/>
-    <mergeCell ref="A198:A201"/>
-    <mergeCell ref="C198:C201"/>
-    <mergeCell ref="D198:D201"/>
-    <mergeCell ref="E198:E201"/>
-    <mergeCell ref="F198:F199"/>
-    <mergeCell ref="F200:F201"/>
-    <mergeCell ref="A202:A205"/>
-    <mergeCell ref="C202:C205"/>
-    <mergeCell ref="D202:D205"/>
-    <mergeCell ref="E202:E205"/>
-    <mergeCell ref="F202:F203"/>
-    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="A178:A181"/>
+    <mergeCell ref="C178:C181"/>
+    <mergeCell ref="D178:D181"/>
+    <mergeCell ref="E178:E181"/>
+    <mergeCell ref="F178:F179"/>
+    <mergeCell ref="F180:F181"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="C170:C173"/>
+    <mergeCell ref="D170:D173"/>
+    <mergeCell ref="E170:E173"/>
+    <mergeCell ref="F170:F171"/>
+    <mergeCell ref="F172:F173"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="D174:D177"/>
+    <mergeCell ref="E174:E177"/>
+    <mergeCell ref="F174:F175"/>
+    <mergeCell ref="F176:F177"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -50341,11 +50355,6 @@
   </sortState>
   <dataConsolidate/>
   <mergeCells count="21">
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E1:F1"/>
@@ -50362,6 +50371,11 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <conditionalFormatting sqref="C25:D25 F25:H25 C47:H47">
     <cfRule type="expression" dxfId="151" priority="149">
@@ -58378,7 +58392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>

--- a/descent/src/descent.xlsx
+++ b/descent/src/descent.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="13095" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="13095" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Contenu" sheetId="8" r:id="rId1"/>
@@ -7506,13 +7506,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -13121,6 +13121,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="C24:C25"/>
@@ -13137,13 +13144,6 @@
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13158,9 +13158,9 @@
   </sheetPr>
   <dimension ref="A1:V94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R30" sqref="R30"/>
+      <selection pane="topRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18199,11 +18199,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT205"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E98" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E136" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A102" sqref="A102:Z105"/>
+      <selection pane="bottomRight" activeCell="Z142" sqref="Z142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18249,11 +18249,11 @@
       <c r="C1" s="95"/>
       <c r="D1" s="16"/>
       <c r="E1" s="32"/>
-      <c r="I1" s="431" t="s">
+      <c r="I1" s="432" t="s">
         <v>308</v>
       </c>
-      <c r="J1" s="431"/>
-      <c r="K1" s="431"/>
+      <c r="J1" s="432"/>
+      <c r="K1" s="432"/>
       <c r="M1" s="29" t="s">
         <v>221</v>
       </c>
@@ -18268,18 +18268,18 @@
       <c r="R1" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="S1" s="430" t="s">
+      <c r="S1" s="431" t="s">
         <v>261</v>
       </c>
-      <c r="T1" s="430"/>
-      <c r="U1" s="430" t="s">
+      <c r="T1" s="431"/>
+      <c r="U1" s="431" t="s">
         <v>262</v>
       </c>
-      <c r="V1" s="430"/>
-      <c r="W1" s="430" t="s">
+      <c r="V1" s="431"/>
+      <c r="W1" s="431" t="s">
         <v>263</v>
       </c>
-      <c r="X1" s="430"/>
+      <c r="X1" s="431"/>
       <c r="AA1" s="63"/>
       <c r="AB1" s="115"/>
       <c r="AC1" s="115"/>
@@ -28664,13 +28664,13 @@
       </c>
     </row>
     <row r="102" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="432" t="s">
+      <c r="A102" s="430" t="s">
         <v>1301</v>
       </c>
       <c r="B102" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C102" s="432" t="s">
+      <c r="C102" s="430" t="s">
         <v>1305</v>
       </c>
       <c r="D102" s="414" t="s">
@@ -28773,11 +28773,11 @@
       </c>
     </row>
     <row r="103" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="432"/>
+      <c r="A103" s="430"/>
       <c r="B103" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C103" s="432"/>
+      <c r="C103" s="430"/>
       <c r="D103" s="414"/>
       <c r="E103" s="417"/>
       <c r="F103" s="417"/>
@@ -28875,11 +28875,11 @@
       </c>
     </row>
     <row r="104" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="432"/>
+      <c r="A104" s="430"/>
       <c r="B104" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C104" s="432"/>
+      <c r="C104" s="430"/>
       <c r="D104" s="414"/>
       <c r="E104" s="417"/>
       <c r="F104" s="417" t="s">
@@ -28976,11 +28976,11 @@
       </c>
     </row>
     <row r="105" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="432"/>
+      <c r="A105" s="430"/>
       <c r="B105" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C105" s="432"/>
+      <c r="C105" s="430"/>
       <c r="D105" s="414"/>
       <c r="E105" s="417"/>
       <c r="F105" s="417"/>
@@ -29078,13 +29078,13 @@
       </c>
     </row>
     <row r="106" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="432" t="s">
+      <c r="A106" s="430" t="s">
         <v>1301</v>
       </c>
       <c r="B106" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C106" s="432" t="s">
+      <c r="C106" s="430" t="s">
         <v>1305</v>
       </c>
       <c r="D106" s="414" t="s">
@@ -29195,11 +29195,11 @@
       </c>
     </row>
     <row r="107" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="432"/>
+      <c r="A107" s="430"/>
       <c r="B107" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C107" s="432"/>
+      <c r="C107" s="430"/>
       <c r="D107" s="414"/>
       <c r="E107" s="417"/>
       <c r="F107" s="417"/>
@@ -29302,11 +29302,11 @@
       </c>
     </row>
     <row r="108" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="432"/>
+      <c r="A108" s="430"/>
       <c r="B108" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C108" s="432"/>
+      <c r="C108" s="430"/>
       <c r="D108" s="414"/>
       <c r="E108" s="417"/>
       <c r="F108" s="417" t="s">
@@ -29411,11 +29411,11 @@
       </c>
     </row>
     <row r="109" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="432"/>
+      <c r="A109" s="430"/>
       <c r="B109" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C109" s="432"/>
+      <c r="C109" s="430"/>
       <c r="D109" s="414"/>
       <c r="E109" s="417"/>
       <c r="F109" s="417"/>
@@ -29518,13 +29518,13 @@
       </c>
     </row>
     <row r="110" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="432" t="s">
+      <c r="A110" s="430" t="s">
         <v>1301</v>
       </c>
       <c r="B110" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C110" s="432" t="s">
+      <c r="C110" s="430" t="s">
         <v>1305</v>
       </c>
       <c r="D110" s="414" t="s">
@@ -29624,11 +29624,11 @@
       </c>
     </row>
     <row r="111" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="432"/>
+      <c r="A111" s="430"/>
       <c r="B111" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C111" s="432"/>
+      <c r="C111" s="430"/>
       <c r="D111" s="414"/>
       <c r="E111" s="417"/>
       <c r="F111" s="417"/>
@@ -29723,11 +29723,11 @@
       </c>
     </row>
     <row r="112" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="432"/>
+      <c r="A112" s="430"/>
       <c r="B112" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C112" s="432"/>
+      <c r="C112" s="430"/>
       <c r="D112" s="414"/>
       <c r="E112" s="417"/>
       <c r="F112" s="417" t="s">
@@ -29821,11 +29821,11 @@
       </c>
     </row>
     <row r="113" spans="1:46" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A113" s="432"/>
+      <c r="A113" s="430"/>
       <c r="B113" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="C113" s="432"/>
+      <c r="C113" s="430"/>
       <c r="D113" s="414"/>
       <c r="E113" s="417"/>
       <c r="F113" s="417"/>
@@ -29920,13 +29920,13 @@
       </c>
     </row>
     <row r="114" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="432" t="s">
+      <c r="A114" s="430" t="s">
         <v>1300</v>
       </c>
       <c r="B114" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C114" s="432" t="s">
+      <c r="C114" s="430" t="s">
         <v>1305</v>
       </c>
       <c r="D114" s="414" t="s">
@@ -30032,11 +30032,11 @@
       </c>
     </row>
     <row r="115" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="432"/>
+      <c r="A115" s="430"/>
       <c r="B115" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C115" s="432"/>
+      <c r="C115" s="430"/>
       <c r="D115" s="414"/>
       <c r="E115" s="417"/>
       <c r="F115" s="417"/>
@@ -30137,11 +30137,11 @@
       </c>
     </row>
     <row r="116" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="432"/>
+      <c r="A116" s="430"/>
       <c r="B116" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C116" s="432"/>
+      <c r="C116" s="430"/>
       <c r="D116" s="414"/>
       <c r="E116" s="417"/>
       <c r="F116" s="417" t="s">
@@ -30241,11 +30241,11 @@
       </c>
     </row>
     <row r="117" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="432"/>
+      <c r="A117" s="430"/>
       <c r="B117" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C117" s="432"/>
+      <c r="C117" s="430"/>
       <c r="D117" s="414"/>
       <c r="E117" s="417"/>
       <c r="F117" s="417"/>
@@ -30346,13 +30346,13 @@
       </c>
     </row>
     <row r="118" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="432" t="s">
+      <c r="A118" s="430" t="s">
         <v>1300</v>
       </c>
       <c r="B118" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C118" s="432" t="s">
+      <c r="C118" s="430" t="s">
         <v>1307</v>
       </c>
       <c r="D118" s="414" t="s">
@@ -30455,11 +30455,11 @@
       </c>
     </row>
     <row r="119" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="432"/>
+      <c r="A119" s="430"/>
       <c r="B119" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C119" s="432"/>
+      <c r="C119" s="430"/>
       <c r="D119" s="414"/>
       <c r="E119" s="417"/>
       <c r="F119" s="417"/>
@@ -30557,11 +30557,11 @@
       </c>
     </row>
     <row r="120" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="432"/>
+      <c r="A120" s="430"/>
       <c r="B120" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C120" s="432"/>
+      <c r="C120" s="430"/>
       <c r="D120" s="414"/>
       <c r="E120" s="417"/>
       <c r="F120" s="417" t="s">
@@ -30658,11 +30658,11 @@
       </c>
     </row>
     <row r="121" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="432"/>
+      <c r="A121" s="430"/>
       <c r="B121" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C121" s="432"/>
+      <c r="C121" s="430"/>
       <c r="D121" s="414"/>
       <c r="E121" s="417"/>
       <c r="F121" s="417"/>
@@ -30760,13 +30760,13 @@
       </c>
     </row>
     <row r="122" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="432" t="s">
+      <c r="A122" s="430" t="s">
         <v>1302</v>
       </c>
       <c r="B122" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C122" s="432" t="s">
+      <c r="C122" s="430" t="s">
         <v>1306</v>
       </c>
       <c r="D122" s="414" t="s">
@@ -30869,11 +30869,11 @@
       </c>
     </row>
     <row r="123" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="432"/>
+      <c r="A123" s="430"/>
       <c r="B123" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C123" s="432"/>
+      <c r="C123" s="430"/>
       <c r="D123" s="414"/>
       <c r="E123" s="417"/>
       <c r="F123" s="417"/>
@@ -30974,11 +30974,11 @@
       </c>
     </row>
     <row r="124" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="432"/>
+      <c r="A124" s="430"/>
       <c r="B124" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C124" s="432"/>
+      <c r="C124" s="430"/>
       <c r="D124" s="414"/>
       <c r="E124" s="417"/>
       <c r="F124" s="417" t="s">
@@ -31075,11 +31075,11 @@
       </c>
     </row>
     <row r="125" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="432"/>
+      <c r="A125" s="430"/>
       <c r="B125" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C125" s="432"/>
+      <c r="C125" s="430"/>
       <c r="D125" s="414"/>
       <c r="E125" s="417"/>
       <c r="F125" s="417"/>
@@ -31177,13 +31177,13 @@
       </c>
     </row>
     <row r="126" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="432" t="s">
+      <c r="A126" s="430" t="s">
         <v>1302</v>
       </c>
       <c r="B126" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C126" s="432" t="s">
+      <c r="C126" s="430" t="s">
         <v>1306</v>
       </c>
       <c r="D126" s="414" t="s">
@@ -31288,11 +31288,11 @@
       </c>
     </row>
     <row r="127" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="432"/>
+      <c r="A127" s="430"/>
       <c r="B127" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C127" s="432"/>
+      <c r="C127" s="430"/>
       <c r="D127" s="414"/>
       <c r="E127" s="417"/>
       <c r="F127" s="417"/>
@@ -31389,11 +31389,11 @@
       </c>
     </row>
     <row r="128" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="432"/>
+      <c r="A128" s="430"/>
       <c r="B128" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C128" s="432"/>
+      <c r="C128" s="430"/>
       <c r="D128" s="414"/>
       <c r="E128" s="417"/>
       <c r="F128" s="417" t="s">
@@ -31489,11 +31489,11 @@
       </c>
     </row>
     <row r="129" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="432"/>
+      <c r="A129" s="430"/>
       <c r="B129" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C129" s="432"/>
+      <c r="C129" s="430"/>
       <c r="D129" s="414"/>
       <c r="E129" s="417"/>
       <c r="F129" s="417"/>
@@ -31587,13 +31587,13 @@
       </c>
     </row>
     <row r="130" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="432" t="s">
+      <c r="A130" s="430" t="s">
         <v>1302</v>
       </c>
       <c r="B130" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C130" s="432" t="s">
+      <c r="C130" s="430" t="s">
         <v>1306</v>
       </c>
       <c r="D130" s="414" t="s">
@@ -31699,11 +31699,11 @@
       </c>
     </row>
     <row r="131" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="432"/>
+      <c r="A131" s="430"/>
       <c r="B131" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C131" s="432"/>
+      <c r="C131" s="430"/>
       <c r="D131" s="414"/>
       <c r="E131" s="417"/>
       <c r="F131" s="417"/>
@@ -31801,11 +31801,11 @@
       </c>
     </row>
     <row r="132" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="432"/>
+      <c r="A132" s="430"/>
       <c r="B132" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C132" s="432"/>
+      <c r="C132" s="430"/>
       <c r="D132" s="414"/>
       <c r="E132" s="417"/>
       <c r="F132" s="417" t="s">
@@ -31902,11 +31902,11 @@
       </c>
     </row>
     <row r="133" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="432"/>
+      <c r="A133" s="430"/>
       <c r="B133" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C133" s="432"/>
+      <c r="C133" s="430"/>
       <c r="D133" s="414"/>
       <c r="E133" s="417"/>
       <c r="F133" s="417"/>
@@ -32001,13 +32001,13 @@
       </c>
     </row>
     <row r="134" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="432" t="s">
+      <c r="A134" s="430" t="s">
         <v>1302</v>
       </c>
       <c r="B134" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C134" s="432" t="s">
+      <c r="C134" s="430" t="s">
         <v>1308</v>
       </c>
       <c r="D134" s="414" t="s">
@@ -32110,11 +32110,11 @@
       </c>
     </row>
     <row r="135" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="432"/>
+      <c r="A135" s="430"/>
       <c r="B135" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C135" s="432"/>
+      <c r="C135" s="430"/>
       <c r="D135" s="414"/>
       <c r="E135" s="417"/>
       <c r="F135" s="417"/>
@@ -32212,11 +32212,11 @@
       </c>
     </row>
     <row r="136" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="432"/>
+      <c r="A136" s="430"/>
       <c r="B136" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C136" s="432"/>
+      <c r="C136" s="430"/>
       <c r="D136" s="414"/>
       <c r="E136" s="417"/>
       <c r="F136" s="417" t="s">
@@ -32313,11 +32313,11 @@
       </c>
     </row>
     <row r="137" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="432"/>
+      <c r="A137" s="430"/>
       <c r="B137" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="C137" s="432"/>
+      <c r="C137" s="430"/>
       <c r="D137" s="414"/>
       <c r="E137" s="417"/>
       <c r="F137" s="417"/>
@@ -32412,13 +32412,13 @@
       </c>
     </row>
     <row r="138" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="432" t="s">
+      <c r="A138" s="430" t="s">
         <v>1304</v>
       </c>
       <c r="B138" s="120" t="s">
         <v>1465</v>
       </c>
-      <c r="C138" s="432" t="s">
+      <c r="C138" s="430" t="s">
         <v>1305</v>
       </c>
       <c r="D138" s="414" t="s">
@@ -32527,11 +32527,11 @@
       </c>
     </row>
     <row r="139" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="432"/>
+      <c r="A139" s="430"/>
       <c r="B139" s="120" t="s">
         <v>1465</v>
       </c>
-      <c r="C139" s="432"/>
+      <c r="C139" s="430"/>
       <c r="D139" s="414"/>
       <c r="E139" s="417"/>
       <c r="F139" s="417"/>
@@ -32632,11 +32632,11 @@
       </c>
     </row>
     <row r="140" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="432"/>
+      <c r="A140" s="430"/>
       <c r="B140" s="120" t="s">
         <v>1465</v>
       </c>
-      <c r="C140" s="432"/>
+      <c r="C140" s="430"/>
       <c r="D140" s="414"/>
       <c r="E140" s="417"/>
       <c r="F140" s="417" t="s">
@@ -32739,11 +32739,11 @@
       </c>
     </row>
     <row r="141" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="432"/>
+      <c r="A141" s="430"/>
       <c r="B141" s="120" t="s">
         <v>1465</v>
       </c>
-      <c r="C141" s="432"/>
+      <c r="C141" s="430"/>
       <c r="D141" s="414"/>
       <c r="E141" s="417"/>
       <c r="F141" s="417"/>
@@ -32844,13 +32844,13 @@
       </c>
     </row>
     <row r="142" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="432" t="s">
+      <c r="A142" s="430" t="s">
         <v>1299</v>
       </c>
       <c r="B142" s="120" t="s">
         <v>313</v>
       </c>
-      <c r="C142" s="432" t="s">
+      <c r="C142" s="430" t="s">
         <v>1305</v>
       </c>
       <c r="D142" s="414" t="s">
@@ -32954,11 +32954,11 @@
       </c>
     </row>
     <row r="143" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="432"/>
+      <c r="A143" s="430"/>
       <c r="B143" s="120" t="s">
         <v>313</v>
       </c>
-      <c r="C143" s="432"/>
+      <c r="C143" s="430"/>
       <c r="D143" s="414"/>
       <c r="E143" s="417"/>
       <c r="F143" s="417"/>
@@ -33054,11 +33054,11 @@
       </c>
     </row>
     <row r="144" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="432"/>
+      <c r="A144" s="430"/>
       <c r="B144" s="120" t="s">
         <v>313</v>
       </c>
-      <c r="C144" s="432"/>
+      <c r="C144" s="430"/>
       <c r="D144" s="414"/>
       <c r="E144" s="417"/>
       <c r="F144" s="417" t="s">
@@ -33150,11 +33150,11 @@
       </c>
     </row>
     <row r="145" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="432"/>
+      <c r="A145" s="430"/>
       <c r="B145" s="120" t="s">
         <v>313</v>
       </c>
-      <c r="C145" s="432"/>
+      <c r="C145" s="430"/>
       <c r="D145" s="414"/>
       <c r="E145" s="417"/>
       <c r="F145" s="417"/>
@@ -39393,90 +39393,208 @@
     <filterColumn colId="22" showButton="0"/>
   </autoFilter>
   <mergeCells count="310">
-    <mergeCell ref="A198:A201"/>
-    <mergeCell ref="C198:C201"/>
-    <mergeCell ref="D198:D201"/>
-    <mergeCell ref="E198:E201"/>
-    <mergeCell ref="F198:F199"/>
-    <mergeCell ref="F200:F201"/>
-    <mergeCell ref="A202:A205"/>
-    <mergeCell ref="C202:C205"/>
-    <mergeCell ref="D202:D205"/>
-    <mergeCell ref="E202:E205"/>
-    <mergeCell ref="F202:F203"/>
-    <mergeCell ref="F204:F205"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="D190:D193"/>
-    <mergeCell ref="E190:E193"/>
-    <mergeCell ref="F190:F191"/>
-    <mergeCell ref="F192:F193"/>
-    <mergeCell ref="A194:A197"/>
-    <mergeCell ref="C194:C197"/>
-    <mergeCell ref="D194:D197"/>
-    <mergeCell ref="E194:E197"/>
-    <mergeCell ref="F194:F195"/>
-    <mergeCell ref="F196:F197"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="C182:C185"/>
-    <mergeCell ref="D182:D185"/>
-    <mergeCell ref="E182:E185"/>
-    <mergeCell ref="F182:F183"/>
-    <mergeCell ref="F184:F185"/>
-    <mergeCell ref="A186:A189"/>
-    <mergeCell ref="C186:C189"/>
-    <mergeCell ref="D186:D189"/>
-    <mergeCell ref="E186:E189"/>
-    <mergeCell ref="F186:F187"/>
-    <mergeCell ref="F188:F189"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="C166:C169"/>
-    <mergeCell ref="D166:D169"/>
-    <mergeCell ref="E166:E169"/>
-    <mergeCell ref="F166:F167"/>
-    <mergeCell ref="F168:F169"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="C158:C161"/>
-    <mergeCell ref="D158:D161"/>
-    <mergeCell ref="E158:E161"/>
-    <mergeCell ref="F158:F159"/>
-    <mergeCell ref="F160:F161"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="C162:C165"/>
-    <mergeCell ref="D162:D165"/>
-    <mergeCell ref="E162:E165"/>
-    <mergeCell ref="F162:F163"/>
-    <mergeCell ref="F164:F165"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="D98:D101"/>
-    <mergeCell ref="E98:E101"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="D90:D93"/>
-    <mergeCell ref="E90:E93"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="D94:D97"/>
-    <mergeCell ref="E94:E97"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="A178:A181"/>
+    <mergeCell ref="C178:C181"/>
+    <mergeCell ref="D178:D181"/>
+    <mergeCell ref="E178:E181"/>
+    <mergeCell ref="F178:F179"/>
+    <mergeCell ref="F180:F181"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="C170:C173"/>
+    <mergeCell ref="D170:D173"/>
+    <mergeCell ref="E170:E173"/>
+    <mergeCell ref="F170:F171"/>
+    <mergeCell ref="F172:F173"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="D174:D177"/>
+    <mergeCell ref="E174:E177"/>
+    <mergeCell ref="F174:F175"/>
+    <mergeCell ref="F176:F177"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="D154:D157"/>
+    <mergeCell ref="E154:E157"/>
+    <mergeCell ref="F154:F155"/>
+    <mergeCell ref="F156:F157"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="D146:D149"/>
+    <mergeCell ref="E146:E149"/>
+    <mergeCell ref="F146:F147"/>
+    <mergeCell ref="F148:F149"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="D150:D153"/>
+    <mergeCell ref="E150:E153"/>
+    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="E134:E137"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="D142:D145"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="E110:E113"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="E126:E129"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="D134:D137"/>
+    <mergeCell ref="E138:E141"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="E142:E145"/>
+    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="F128:F129"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="D102:D105"/>
+    <mergeCell ref="D106:D109"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="E102:E105"/>
+    <mergeCell ref="E106:E109"/>
+    <mergeCell ref="D110:D113"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="A126:A129"/>
     <mergeCell ref="C130:C133"/>
     <mergeCell ref="C134:C137"/>
     <mergeCell ref="C138:C141"/>
@@ -39501,208 +39619,90 @@
     <mergeCell ref="C102:C105"/>
     <mergeCell ref="C106:C109"/>
     <mergeCell ref="C110:C113"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="E102:E105"/>
-    <mergeCell ref="E106:E109"/>
-    <mergeCell ref="D110:D113"/>
-    <mergeCell ref="D114:D117"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="D102:D105"/>
-    <mergeCell ref="D106:D109"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="F128:F129"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="E134:E137"/>
-    <mergeCell ref="D138:D141"/>
-    <mergeCell ref="D142:D145"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="F144:F145"/>
-    <mergeCell ref="E110:E113"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="E118:E121"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="E126:E129"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="D134:D137"/>
-    <mergeCell ref="E138:E141"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="E142:E145"/>
-    <mergeCell ref="D126:D129"/>
-    <mergeCell ref="E130:E133"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="D146:D149"/>
-    <mergeCell ref="E146:E149"/>
-    <mergeCell ref="F146:F147"/>
-    <mergeCell ref="F148:F149"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="D150:D153"/>
-    <mergeCell ref="E150:E153"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="A154:A157"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="D154:D157"/>
-    <mergeCell ref="E154:E157"/>
-    <mergeCell ref="F154:F155"/>
-    <mergeCell ref="F156:F157"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="D62:D65"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="A178:A181"/>
-    <mergeCell ref="C178:C181"/>
-    <mergeCell ref="D178:D181"/>
-    <mergeCell ref="E178:E181"/>
-    <mergeCell ref="F178:F179"/>
-    <mergeCell ref="F180:F181"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="C170:C173"/>
-    <mergeCell ref="D170:D173"/>
-    <mergeCell ref="E170:E173"/>
-    <mergeCell ref="F170:F171"/>
-    <mergeCell ref="F172:F173"/>
-    <mergeCell ref="A174:A177"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="D174:D177"/>
-    <mergeCell ref="E174:E177"/>
-    <mergeCell ref="F174:F175"/>
-    <mergeCell ref="F176:F177"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="D98:D101"/>
+    <mergeCell ref="E98:E101"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="D90:D93"/>
+    <mergeCell ref="E90:E93"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="D94:D97"/>
+    <mergeCell ref="E94:E97"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="C166:C169"/>
+    <mergeCell ref="D166:D169"/>
+    <mergeCell ref="E166:E169"/>
+    <mergeCell ref="F166:F167"/>
+    <mergeCell ref="F168:F169"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="C158:C161"/>
+    <mergeCell ref="D158:D161"/>
+    <mergeCell ref="E158:E161"/>
+    <mergeCell ref="F158:F159"/>
+    <mergeCell ref="F160:F161"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="C162:C165"/>
+    <mergeCell ref="D162:D165"/>
+    <mergeCell ref="E162:E165"/>
+    <mergeCell ref="F162:F163"/>
+    <mergeCell ref="F164:F165"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="C182:C185"/>
+    <mergeCell ref="D182:D185"/>
+    <mergeCell ref="E182:E185"/>
+    <mergeCell ref="F182:F183"/>
+    <mergeCell ref="F184:F185"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="C186:C189"/>
+    <mergeCell ref="D186:D189"/>
+    <mergeCell ref="E186:E189"/>
+    <mergeCell ref="F186:F187"/>
+    <mergeCell ref="F188:F189"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="D190:D193"/>
+    <mergeCell ref="E190:E193"/>
+    <mergeCell ref="F190:F191"/>
+    <mergeCell ref="F192:F193"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="C194:C197"/>
+    <mergeCell ref="D194:D197"/>
+    <mergeCell ref="E194:E197"/>
+    <mergeCell ref="F194:F195"/>
+    <mergeCell ref="F196:F197"/>
+    <mergeCell ref="A198:A201"/>
+    <mergeCell ref="C198:C201"/>
+    <mergeCell ref="D198:D201"/>
+    <mergeCell ref="E198:E201"/>
+    <mergeCell ref="F198:F199"/>
+    <mergeCell ref="F200:F201"/>
+    <mergeCell ref="A202:A205"/>
+    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="D202:D205"/>
+    <mergeCell ref="E202:E205"/>
+    <mergeCell ref="F202:F203"/>
+    <mergeCell ref="F204:F205"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -39716,8 +39716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -44343,9 +44343,9 @@
   <dimension ref="A1:R144"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3600" topLeftCell="A102" activePane="bottomLeft"/>
+      <pane ySplit="3600" topLeftCell="A13" activePane="bottomLeft"/>
       <selection activeCell="Q52" sqref="Q52"/>
-      <selection pane="bottomLeft" activeCell="R25" sqref="R25:R114"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -50355,6 +50355,11 @@
   </sortState>
   <dataConsolidate/>
   <mergeCells count="21">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E1:F1"/>
@@ -50371,11 +50376,6 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <conditionalFormatting sqref="C25:D25 F25:H25 C47:H47">
     <cfRule type="expression" dxfId="151" priority="149">
